--- a/Employment rates by sex, age and NUTS 2 regions (%).xlsx
+++ b/Employment rates by sex, age and NUTS 2 regions (%).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducci\Desktop\Tesi\2 TESI PROJECT\Control Variables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducci\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D961D853-57D9-43D5-B366-D61E868EBE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53412BBE-BE6A-4E2B-A895-A934BAD864C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="495">
   <si>
     <t>Employment rates by sex, age and NUTS 2 regions (%) [lfst_r_lfe2emprt]</t>
   </si>
@@ -1903,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K508"/>
+  <dimension ref="A1:K507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214:XFD214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -7609,596 +7609,596 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
-        <v>171</v>
+        <v>462</v>
       </c>
       <c r="B214" s="4">
-        <v>62.7</v>
+        <v>66.7</v>
       </c>
       <c r="C214" s="4">
-        <v>63.4</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="D214" s="4">
-        <v>64.400000000000006</v>
+        <v>70.5</v>
       </c>
       <c r="E214" s="4">
-        <v>65.3</v>
+        <v>70.3</v>
       </c>
       <c r="F214" s="4">
-        <v>66</v>
+        <v>69.5</v>
       </c>
       <c r="G214" s="4">
-        <v>66.099999999999994</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="H214" s="4">
-        <v>66.900000000000006</v>
+        <v>69.5</v>
       </c>
       <c r="I214" s="4">
-        <v>67.5</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A215" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B215" s="4">
-        <v>66.7</v>
+        <v>62.7</v>
       </c>
       <c r="C215" s="4">
-        <v>67.599999999999994</v>
+        <v>62</v>
       </c>
       <c r="D215" s="4">
-        <v>70.5</v>
+        <v>61.9</v>
       </c>
       <c r="E215" s="4">
-        <v>70.3</v>
+        <v>63.8</v>
       </c>
       <c r="F215" s="4">
-        <v>69.5</v>
+        <v>65.3</v>
       </c>
       <c r="G215" s="4">
-        <v>69.099999999999994</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="H215" s="4">
-        <v>69.5</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="I215" s="4">
-        <v>69.7</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="s">
-        <v>463</v>
+        <v>172</v>
       </c>
       <c r="B216" s="4">
-        <v>62.7</v>
+        <v>61.4</v>
       </c>
       <c r="C216" s="4">
-        <v>62</v>
+        <v>62.3</v>
       </c>
       <c r="D216" s="4">
-        <v>61.9</v>
+        <v>62.8</v>
       </c>
       <c r="E216" s="4">
-        <v>63.8</v>
+        <v>63.5</v>
       </c>
       <c r="F216" s="4">
+        <v>64.2</v>
+      </c>
+      <c r="G216" s="4">
+        <v>64.7</v>
+      </c>
+      <c r="H216" s="4">
         <v>65.3</v>
       </c>
-      <c r="G216" s="4">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="H216" s="4">
-        <v>65.400000000000006</v>
-      </c>
       <c r="I216" s="4">
-        <v>66.3</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A217" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B217" s="4">
-        <v>61.4</v>
+        <v>59.8</v>
       </c>
       <c r="C217" s="4">
-        <v>62.3</v>
+        <v>61.3</v>
       </c>
       <c r="D217" s="4">
-        <v>62.8</v>
+        <v>61.7</v>
       </c>
       <c r="E217" s="4">
-        <v>63.5</v>
+        <v>62.4</v>
       </c>
       <c r="F217" s="4">
-        <v>64.2</v>
+        <v>63</v>
       </c>
       <c r="G217" s="4">
-        <v>64.7</v>
+        <v>63.2</v>
       </c>
       <c r="H217" s="4">
-        <v>65.3</v>
+        <v>64.8</v>
       </c>
       <c r="I217" s="4">
-        <v>65.7</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B218" s="4">
-        <v>59.8</v>
-      </c>
-      <c r="C218" s="4">
-        <v>61.3</v>
-      </c>
-      <c r="D218" s="4">
-        <v>61.7</v>
-      </c>
-      <c r="E218" s="4">
-        <v>62.4</v>
-      </c>
-      <c r="F218" s="4">
-        <v>63</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
       <c r="G218" s="4">
-        <v>63.2</v>
+        <v>68.5</v>
       </c>
       <c r="H218" s="4">
-        <v>64.8</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="I218" s="4">
-        <v>65.400000000000006</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A219" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="B219" s="4">
+        <v>55.8</v>
+      </c>
+      <c r="C219" s="4">
+        <v>57.3</v>
+      </c>
+      <c r="D219" s="4">
+        <v>58.1</v>
+      </c>
+      <c r="E219" s="4">
+        <v>59.3</v>
+      </c>
+      <c r="F219" s="4">
+        <v>61.6</v>
+      </c>
       <c r="G219" s="4">
-        <v>68.5</v>
+        <v>61.1</v>
       </c>
       <c r="H219" s="4">
-        <v>69.400000000000006</v>
+        <v>62</v>
       </c>
       <c r="I219" s="4">
-        <v>70.2</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A220" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B220" s="4">
-        <v>55.8</v>
+        <v>59.3</v>
       </c>
       <c r="C220" s="4">
-        <v>57.3</v>
+        <v>60.7</v>
       </c>
       <c r="D220" s="4">
-        <v>58.1</v>
+        <v>60.4</v>
       </c>
       <c r="E220" s="4">
-        <v>59.3</v>
+        <v>62.3</v>
       </c>
       <c r="F220" s="4">
-        <v>61.6</v>
+        <v>63.2</v>
       </c>
       <c r="G220" s="4">
-        <v>61.1</v>
+        <v>63.8</v>
       </c>
       <c r="H220" s="4">
-        <v>62</v>
+        <v>64.7</v>
       </c>
       <c r="I220" s="4">
-        <v>62.2</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A221" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B221" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="C221" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="D221" s="4">
         <v>59.3</v>
       </c>
-      <c r="C221" s="4">
-        <v>60.7</v>
-      </c>
-      <c r="D221" s="4">
-        <v>60.4</v>
-      </c>
       <c r="E221" s="4">
+        <v>60.1</v>
+      </c>
+      <c r="F221" s="4">
         <v>62.3</v>
       </c>
-      <c r="F221" s="4">
-        <v>63.2</v>
-      </c>
       <c r="G221" s="4">
-        <v>63.8</v>
+        <v>61.7</v>
       </c>
       <c r="H221" s="4">
-        <v>64.7</v>
+        <v>62.8</v>
       </c>
       <c r="I221" s="4">
-        <v>64.7</v>
+        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A222" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B222" s="4">
-        <v>58.8</v>
-      </c>
-      <c r="C222" s="4">
-        <v>59.6</v>
-      </c>
-      <c r="D222" s="4">
-        <v>59.3</v>
-      </c>
-      <c r="E222" s="4">
-        <v>60.1</v>
-      </c>
-      <c r="F222" s="4">
-        <v>62.3</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
       <c r="G222" s="4">
-        <v>61.7</v>
+        <v>63.5</v>
       </c>
       <c r="H222" s="4">
-        <v>62.8</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="I222" s="4">
-        <v>64.599999999999994</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A223" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="B223" s="4">
+        <v>52</v>
+      </c>
+      <c r="C223" s="4">
+        <v>53.7</v>
+      </c>
+      <c r="D223" s="4">
+        <v>55.2</v>
+      </c>
+      <c r="E223" s="4">
+        <v>56.1</v>
+      </c>
+      <c r="F223" s="4">
+        <v>59.5</v>
+      </c>
       <c r="G223" s="4">
-        <v>63.5</v>
+        <v>58.6</v>
       </c>
       <c r="H223" s="4">
-        <v>64.400000000000006</v>
+        <v>59.4</v>
       </c>
       <c r="I223" s="4">
-        <v>64.8</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B224" s="4">
-        <v>52</v>
+        <v>42.7</v>
       </c>
       <c r="C224" s="4">
-        <v>53.7</v>
+        <v>43.5</v>
       </c>
       <c r="D224" s="4">
-        <v>55.2</v>
+        <v>44.3</v>
       </c>
       <c r="E224" s="4">
-        <v>56.1</v>
+        <v>44.7</v>
       </c>
       <c r="F224" s="4">
-        <v>59.5</v>
+        <v>46.8</v>
       </c>
       <c r="G224" s="4">
-        <v>58.6</v>
+        <v>45.9</v>
       </c>
       <c r="H224" s="4">
-        <v>59.4</v>
+        <v>46.4</v>
       </c>
       <c r="I224" s="4">
-        <v>59.5</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A225" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B225" s="4">
-        <v>42.7</v>
+        <v>52.9</v>
       </c>
       <c r="C225" s="4">
-        <v>43.5</v>
+        <v>55.1</v>
       </c>
       <c r="D225" s="4">
-        <v>44.3</v>
+        <v>55.1</v>
       </c>
       <c r="E225" s="4">
-        <v>44.7</v>
+        <v>56.3</v>
       </c>
       <c r="F225" s="4">
-        <v>46.8</v>
+        <v>55.7</v>
       </c>
       <c r="G225" s="4">
-        <v>45.9</v>
+        <v>57.1</v>
       </c>
       <c r="H225" s="4">
-        <v>46.4</v>
+        <v>57.6</v>
       </c>
       <c r="I225" s="4">
-        <v>46.4</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B226" s="4">
-        <v>52.9</v>
+        <v>51.1</v>
       </c>
       <c r="C226" s="4">
-        <v>55.1</v>
+        <v>52.6</v>
       </c>
       <c r="D226" s="4">
-        <v>55.1</v>
+        <v>52.5</v>
       </c>
       <c r="E226" s="4">
-        <v>56.3</v>
+        <v>52</v>
       </c>
       <c r="F226" s="4">
-        <v>55.7</v>
+        <v>53.1</v>
       </c>
       <c r="G226" s="4">
-        <v>57.1</v>
+        <v>51.3</v>
       </c>
       <c r="H226" s="4">
-        <v>57.6</v>
+        <v>52.4</v>
       </c>
       <c r="I226" s="4">
-        <v>57.9</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A227" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B227" s="4">
-        <v>51.1</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="C227" s="4">
-        <v>52.6</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="D227" s="4">
-        <v>52.5</v>
+        <v>41.7</v>
       </c>
       <c r="E227" s="4">
-        <v>52</v>
+        <v>41.8</v>
       </c>
       <c r="F227" s="4">
-        <v>53.1</v>
+        <v>45.8</v>
       </c>
       <c r="G227" s="4">
-        <v>51.3</v>
+        <v>44.2</v>
       </c>
       <c r="H227" s="4">
-        <v>52.4</v>
+        <v>44.1</v>
       </c>
       <c r="I227" s="4">
-        <v>53.6</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A228" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B228" s="4">
-        <v>40.200000000000003</v>
+        <v>43.6</v>
       </c>
       <c r="C228" s="4">
-        <v>40.700000000000003</v>
+        <v>44.3</v>
       </c>
       <c r="D228" s="4">
-        <v>41.7</v>
+        <v>45.4</v>
       </c>
       <c r="E228" s="4">
-        <v>41.8</v>
+        <v>45.5</v>
       </c>
       <c r="F228" s="4">
-        <v>45.8</v>
+        <v>45.5</v>
       </c>
       <c r="G228" s="4">
-        <v>44.2</v>
+        <v>44.5</v>
       </c>
       <c r="H228" s="4">
-        <v>44.1</v>
+        <v>45.7</v>
       </c>
       <c r="I228" s="4">
-        <v>43.7</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A229" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B229" s="4">
-        <v>43.6</v>
+        <v>45.5</v>
       </c>
       <c r="C229" s="4">
         <v>44.3</v>
       </c>
       <c r="D229" s="4">
-        <v>45.4</v>
+        <v>45.8</v>
       </c>
       <c r="E229" s="4">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="F229" s="4">
-        <v>45.5</v>
+        <v>49.1</v>
       </c>
       <c r="G229" s="4">
-        <v>44.5</v>
+        <v>49.3</v>
       </c>
       <c r="H229" s="4">
-        <v>45.7</v>
+        <v>50.2</v>
       </c>
       <c r="I229" s="4">
-        <v>46.6</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A230" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B230" s="4">
-        <v>45.5</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="C230" s="4">
-        <v>44.3</v>
+        <v>41.1</v>
       </c>
       <c r="D230" s="4">
-        <v>45.8</v>
+        <v>41.3</v>
       </c>
       <c r="E230" s="4">
-        <v>45.7</v>
+        <v>42.4</v>
       </c>
       <c r="F230" s="4">
-        <v>49.1</v>
+        <v>45.3</v>
       </c>
       <c r="G230" s="4">
-        <v>49.3</v>
+        <v>44.6</v>
       </c>
       <c r="H230" s="4">
-        <v>50.2</v>
+        <v>45.4</v>
       </c>
       <c r="I230" s="4">
-        <v>49.5</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A231" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B231" s="4">
-        <v>39.299999999999997</v>
+        <v>41.1</v>
       </c>
       <c r="C231" s="4">
-        <v>41.1</v>
+        <v>42.7</v>
       </c>
       <c r="D231" s="4">
-        <v>41.3</v>
+        <v>43.5</v>
       </c>
       <c r="E231" s="4">
-        <v>42.4</v>
+        <v>43.2</v>
       </c>
       <c r="F231" s="4">
-        <v>45.3</v>
+        <v>46.2</v>
       </c>
       <c r="G231" s="4">
-        <v>44.6</v>
+        <v>46.1</v>
       </c>
       <c r="H231" s="4">
-        <v>45.4</v>
+        <v>46.8</v>
       </c>
       <c r="I231" s="4">
-        <v>44.9</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B232" s="4">
-        <v>41.1</v>
+        <v>40</v>
       </c>
       <c r="C232" s="4">
-        <v>42.7</v>
+        <v>41.8</v>
       </c>
       <c r="D232" s="4">
-        <v>43.5</v>
+        <v>42.5</v>
       </c>
       <c r="E232" s="4">
-        <v>43.2</v>
+        <v>42.1</v>
       </c>
       <c r="F232" s="4">
-        <v>46.2</v>
+        <v>44</v>
       </c>
       <c r="G232" s="4">
-        <v>46.1</v>
+        <v>44.2</v>
       </c>
       <c r="H232" s="4">
-        <v>46.8</v>
+        <v>45</v>
       </c>
       <c r="I232" s="4">
-        <v>46.7</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A233" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B233" s="4">
-        <v>40</v>
+        <v>44.1</v>
       </c>
       <c r="C233" s="4">
-        <v>41.8</v>
+        <v>45.2</v>
       </c>
       <c r="D233" s="4">
-        <v>42.5</v>
+        <v>46.4</v>
       </c>
       <c r="E233" s="4">
-        <v>42.1</v>
+        <v>46.5</v>
       </c>
       <c r="F233" s="4">
-        <v>44</v>
+        <v>52.4</v>
       </c>
       <c r="G233" s="4">
-        <v>44.2</v>
+        <v>51.5</v>
       </c>
       <c r="H233" s="4">
-        <v>45</v>
+        <v>52.1</v>
       </c>
       <c r="I233" s="4">
-        <v>44.6</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B234" s="4">
-        <v>44.1</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="C234" s="4">
-        <v>45.2</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="D234" s="4">
-        <v>46.4</v>
+        <v>68.5</v>
       </c>
       <c r="E234" s="4">
-        <v>46.5</v>
+        <v>69.2</v>
       </c>
       <c r="F234" s="4">
-        <v>52.4</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="G234" s="4">
-        <v>51.5</v>
+        <v>68.5</v>
       </c>
       <c r="H234" s="4">
-        <v>52.1</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="I234" s="4">
-        <v>52.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A235" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B235" s="4">
         <v>65.400000000000006</v>
@@ -8256,36 +8256,36 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A237" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B237" s="4">
-        <v>65.400000000000006</v>
+        <v>57.4</v>
       </c>
       <c r="C237" s="4">
-        <v>67.900000000000006</v>
+        <v>58.1</v>
       </c>
       <c r="D237" s="4">
-        <v>68.5</v>
+        <v>59.6</v>
       </c>
       <c r="E237" s="4">
-        <v>69.2</v>
+        <v>60.3</v>
       </c>
       <c r="F237" s="4">
-        <v>69.400000000000006</v>
+        <v>60.5</v>
       </c>
       <c r="G237" s="4">
-        <v>68.5</v>
+        <v>62.1</v>
       </c>
       <c r="H237" s="4">
-        <v>69.599999999999994</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="I237" s="4">
-        <v>71</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B238" s="4">
         <v>57.4</v>
@@ -8343,36 +8343,36 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B240" s="4">
-        <v>57.4</v>
+        <v>59.6</v>
       </c>
       <c r="C240" s="4">
         <v>58.1</v>
       </c>
       <c r="D240" s="4">
-        <v>59.6</v>
+        <v>60.6</v>
       </c>
       <c r="E240" s="4">
-        <v>60.3</v>
+        <v>62.8</v>
       </c>
       <c r="F240" s="4">
-        <v>60.5</v>
+        <v>61.8</v>
       </c>
       <c r="G240" s="4">
-        <v>62.1</v>
+        <v>62.9</v>
       </c>
       <c r="H240" s="4">
-        <v>65.900000000000006</v>
+        <v>63.6</v>
       </c>
       <c r="I240" s="4">
-        <v>68.099999999999994</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A241" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B241" s="4">
         <v>59.6</v>
@@ -8401,36 +8401,20 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A242" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B242" s="4">
-        <v>59.6</v>
-      </c>
-      <c r="C242" s="4">
-        <v>58.1</v>
-      </c>
-      <c r="D242" s="4">
-        <v>60.6</v>
-      </c>
-      <c r="E242" s="4">
-        <v>62.8</v>
-      </c>
-      <c r="F242" s="4">
-        <v>61.8</v>
-      </c>
-      <c r="G242" s="4">
-        <v>62.9</v>
-      </c>
-      <c r="H242" s="4">
-        <v>63.6</v>
-      </c>
-      <c r="I242" s="4">
-        <v>65</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+      <c r="I242" s="4"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A243" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -8443,49 +8427,65 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A244" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4"/>
-      <c r="F244" s="4"/>
-      <c r="G244" s="4"/>
-      <c r="H244" s="4"/>
-      <c r="I244" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="B244" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="C244" s="4">
+        <v>58.1</v>
+      </c>
+      <c r="D244" s="4">
+        <v>60.6</v>
+      </c>
+      <c r="E244" s="4">
+        <v>62.8</v>
+      </c>
+      <c r="F244" s="4">
+        <v>61.8</v>
+      </c>
+      <c r="G244" s="4">
+        <v>62.9</v>
+      </c>
+      <c r="H244" s="4">
+        <v>63.6</v>
+      </c>
+      <c r="I244" s="4">
+        <v>65</v>
+      </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A245" s="3" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="B245" s="4">
-        <v>59.6</v>
+        <v>62.7</v>
       </c>
       <c r="C245" s="4">
-        <v>58.1</v>
+        <v>63</v>
       </c>
       <c r="D245" s="4">
-        <v>60.6</v>
+        <v>63.6</v>
       </c>
       <c r="E245" s="4">
-        <v>62.8</v>
+        <v>62.2</v>
       </c>
       <c r="F245" s="4">
-        <v>61.8</v>
+        <v>62.5</v>
       </c>
       <c r="G245" s="4">
-        <v>62.9</v>
+        <v>63.6</v>
       </c>
       <c r="H245" s="4">
         <v>63.6</v>
       </c>
       <c r="I245" s="4">
-        <v>65</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A246" s="3" t="s">
-        <v>464</v>
+        <v>199</v>
       </c>
       <c r="B246" s="4">
         <v>62.7</v>
@@ -8543,94 +8543,78 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B248" s="4">
-        <v>62.7</v>
+        <v>55.9</v>
       </c>
       <c r="C248" s="4">
-        <v>63</v>
+        <v>56.1</v>
       </c>
       <c r="D248" s="4">
-        <v>63.6</v>
+        <v>56.2</v>
       </c>
       <c r="E248" s="4">
-        <v>62.2</v>
+        <v>57</v>
       </c>
       <c r="F248" s="4">
-        <v>62.5</v>
+        <v>56.6</v>
       </c>
       <c r="G248" s="4">
-        <v>63.6</v>
+        <v>56.9</v>
       </c>
       <c r="H248" s="4">
-        <v>63.6</v>
+        <v>57.4</v>
       </c>
       <c r="I248" s="4">
-        <v>64.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A249" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B249" s="4">
-        <v>55.9</v>
+        <v>60.2</v>
       </c>
       <c r="C249" s="4">
-        <v>56.1</v>
+        <v>60.4</v>
       </c>
       <c r="D249" s="4">
-        <v>56.2</v>
+        <v>60.8</v>
       </c>
       <c r="E249" s="4">
-        <v>57</v>
+        <v>61.5</v>
       </c>
       <c r="F249" s="4">
-        <v>56.6</v>
+        <v>62.5</v>
       </c>
       <c r="G249" s="4">
-        <v>56.9</v>
+        <v>63.3</v>
       </c>
       <c r="H249" s="4">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="I249" s="4">
-        <v>57</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A250" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B250" s="4">
-        <v>60.2</v>
-      </c>
-      <c r="C250" s="4">
-        <v>60.4</v>
-      </c>
-      <c r="D250" s="4">
-        <v>60.8</v>
-      </c>
-      <c r="E250" s="4">
-        <v>61.5</v>
-      </c>
-      <c r="F250" s="4">
-        <v>62.5</v>
-      </c>
-      <c r="G250" s="4">
-        <v>63.3</v>
-      </c>
-      <c r="H250" s="4">
-        <v>63.1</v>
-      </c>
-      <c r="I250" s="4">
-        <v>62.9</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+      <c r="I250" s="4"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A251" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -8643,276 +8627,292 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
-      <c r="F252" s="4"/>
-      <c r="G252" s="4"/>
-      <c r="H252" s="4"/>
-      <c r="I252" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="B252" s="4">
+        <v>60.2</v>
+      </c>
+      <c r="C252" s="4">
+        <v>60.4</v>
+      </c>
+      <c r="D252" s="4">
+        <v>60.8</v>
+      </c>
+      <c r="E252" s="4">
+        <v>61.5</v>
+      </c>
+      <c r="F252" s="4">
+        <v>62.5</v>
+      </c>
+      <c r="G252" s="4">
+        <v>63.3</v>
+      </c>
+      <c r="H252" s="4">
+        <v>63.1</v>
+      </c>
+      <c r="I252" s="4">
+        <v>62.9</v>
+      </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A253" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B253" s="4">
-        <v>60.2</v>
+        <v>58.4</v>
       </c>
       <c r="C253" s="4">
-        <v>60.4</v>
+        <v>58.3</v>
       </c>
       <c r="D253" s="4">
-        <v>60.8</v>
+        <v>58.5</v>
       </c>
       <c r="E253" s="4">
-        <v>61.5</v>
+        <v>59.5</v>
       </c>
       <c r="F253" s="4">
-        <v>62.5</v>
+        <v>58.3</v>
       </c>
       <c r="G253" s="4">
-        <v>63.3</v>
+        <v>58.7</v>
       </c>
       <c r="H253" s="4">
-        <v>63.1</v>
+        <v>59.2</v>
       </c>
       <c r="I253" s="4">
-        <v>62.9</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B254" s="4">
-        <v>58.4</v>
+        <v>58.8</v>
       </c>
       <c r="C254" s="4">
-        <v>58.3</v>
+        <v>59.5</v>
       </c>
       <c r="D254" s="4">
-        <v>58.5</v>
+        <v>59.9</v>
       </c>
       <c r="E254" s="4">
-        <v>59.5</v>
+        <v>62.7</v>
       </c>
       <c r="F254" s="4">
-        <v>58.3</v>
+        <v>60.1</v>
       </c>
       <c r="G254" s="4">
-        <v>58.7</v>
+        <v>60.2</v>
       </c>
       <c r="H254" s="4">
-        <v>59.2</v>
+        <v>61.3</v>
       </c>
       <c r="I254" s="4">
-        <v>58.6</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A255" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B255" s="4">
-        <v>58.8</v>
+        <v>63.1</v>
       </c>
       <c r="C255" s="4">
-        <v>59.5</v>
+        <v>62.7</v>
       </c>
       <c r="D255" s="4">
-        <v>59.9</v>
+        <v>63.9</v>
       </c>
       <c r="E255" s="4">
-        <v>62.7</v>
+        <v>61.6</v>
       </c>
       <c r="F255" s="4">
-        <v>60.1</v>
+        <v>61.6</v>
       </c>
       <c r="G255" s="4">
-        <v>60.2</v>
+        <v>62.1</v>
       </c>
       <c r="H255" s="4">
-        <v>61.3</v>
+        <v>62.5</v>
       </c>
       <c r="I255" s="4">
-        <v>61.4</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A256" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B256" s="4">
-        <v>63.1</v>
+        <v>53.1</v>
       </c>
       <c r="C256" s="4">
-        <v>62.7</v>
+        <v>52.6</v>
       </c>
       <c r="D256" s="4">
-        <v>63.9</v>
+        <v>51.5</v>
       </c>
       <c r="E256" s="4">
-        <v>61.6</v>
+        <v>53.6</v>
       </c>
       <c r="F256" s="4">
-        <v>61.6</v>
+        <v>52.7</v>
       </c>
       <c r="G256" s="4">
-        <v>62.1</v>
+        <v>53.4</v>
       </c>
       <c r="H256" s="4">
-        <v>62.5</v>
+        <v>53.2</v>
       </c>
       <c r="I256" s="4">
-        <v>62.8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A257" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B257" s="4">
-        <v>53.1</v>
+        <v>51.1</v>
       </c>
       <c r="C257" s="4">
-        <v>52.6</v>
+        <v>51.4</v>
       </c>
       <c r="D257" s="4">
-        <v>51.5</v>
+        <v>51.2</v>
       </c>
       <c r="E257" s="4">
-        <v>53.6</v>
+        <v>52.2</v>
       </c>
       <c r="F257" s="4">
-        <v>52.7</v>
+        <v>51.3</v>
       </c>
       <c r="G257" s="4">
-        <v>53.4</v>
+        <v>51.1</v>
       </c>
       <c r="H257" s="4">
-        <v>53.2</v>
+        <v>51.9</v>
       </c>
       <c r="I257" s="4">
-        <v>51</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A258" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B258" s="4">
+        <v>49.2</v>
+      </c>
+      <c r="C258" s="4">
+        <v>49.7</v>
+      </c>
+      <c r="D258" s="4">
+        <v>50.7</v>
+      </c>
+      <c r="E258" s="4">
         <v>51.1</v>
       </c>
-      <c r="C258" s="4">
-        <v>51.4</v>
-      </c>
-      <c r="D258" s="4">
-        <v>51.2</v>
-      </c>
-      <c r="E258" s="4">
-        <v>52.2</v>
-      </c>
       <c r="F258" s="4">
-        <v>51.3</v>
+        <v>50.2</v>
       </c>
       <c r="G258" s="4">
-        <v>51.1</v>
+        <v>49.5</v>
       </c>
       <c r="H258" s="4">
-        <v>51.9</v>
+        <v>50.7</v>
       </c>
       <c r="I258" s="4">
-        <v>51.7</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A259" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B259" s="4">
+        <v>48.4</v>
+      </c>
+      <c r="C259" s="4">
         <v>49.2</v>
       </c>
-      <c r="C259" s="4">
-        <v>49.7</v>
-      </c>
       <c r="D259" s="4">
-        <v>50.7</v>
+        <v>49</v>
       </c>
       <c r="E259" s="4">
+        <v>52</v>
+      </c>
+      <c r="F259" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="G259" s="4">
+        <v>50.2</v>
+      </c>
+      <c r="H259" s="4">
         <v>51.1</v>
       </c>
-      <c r="F259" s="4">
-        <v>50.2</v>
-      </c>
-      <c r="G259" s="4">
-        <v>49.5</v>
-      </c>
-      <c r="H259" s="4">
-        <v>50.7</v>
-      </c>
       <c r="I259" s="4">
-        <v>50.4</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A260" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B260" s="4">
-        <v>48.4</v>
+        <v>55.7</v>
       </c>
       <c r="C260" s="4">
-        <v>49.2</v>
+        <v>55.6</v>
       </c>
       <c r="D260" s="4">
-        <v>49</v>
+        <v>54.2</v>
       </c>
       <c r="E260" s="4">
-        <v>52</v>
+        <v>53.3</v>
       </c>
       <c r="F260" s="4">
-        <v>50.5</v>
+        <v>53.4</v>
       </c>
       <c r="G260" s="4">
-        <v>50.2</v>
+        <v>53.8</v>
       </c>
       <c r="H260" s="4">
-        <v>51.1</v>
+        <v>54</v>
       </c>
       <c r="I260" s="4">
-        <v>50.3</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A261" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B261" s="4">
-        <v>55.7</v>
+        <v>54.5</v>
       </c>
       <c r="C261" s="4">
-        <v>55.6</v>
+        <v>54.7</v>
       </c>
       <c r="D261" s="4">
-        <v>54.2</v>
+        <v>55</v>
       </c>
       <c r="E261" s="4">
-        <v>53.3</v>
+        <v>54.6</v>
       </c>
       <c r="F261" s="4">
         <v>53.4</v>
       </c>
       <c r="G261" s="4">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="H261" s="4">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="I261" s="4">
-        <v>54.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.45">
@@ -8975,202 +8975,202 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A264" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B264" s="4">
-        <v>54.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="C264" s="4">
-        <v>54.7</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="D264" s="4">
-        <v>55</v>
+        <v>74.5</v>
       </c>
       <c r="E264" s="4">
-        <v>54.6</v>
+        <v>73.8</v>
       </c>
       <c r="F264" s="4">
-        <v>53.4</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="G264" s="4">
-        <v>53.6</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="H264" s="4">
-        <v>53.9</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="I264" s="4">
-        <v>55</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A265" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B265" s="4">
-        <v>72.900000000000006</v>
+        <v>69.8</v>
       </c>
       <c r="C265" s="4">
-        <v>74.099999999999994</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="D265" s="4">
-        <v>74.5</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="E265" s="4">
-        <v>73.8</v>
+        <v>72</v>
       </c>
       <c r="F265" s="4">
-        <v>73.099999999999994</v>
+        <v>70.5</v>
       </c>
       <c r="G265" s="4">
-        <v>70.599999999999994</v>
+        <v>68.5</v>
       </c>
       <c r="H265" s="4">
-        <v>71.599999999999994</v>
+        <v>69</v>
       </c>
       <c r="I265" s="4">
-        <v>73.5</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A266" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B266" s="4">
-        <v>69.8</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C266" s="4">
-        <v>70.900000000000006</v>
+        <v>71</v>
       </c>
       <c r="D266" s="4">
-        <v>72.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="E266" s="4">
-        <v>72</v>
+        <v>69.5</v>
       </c>
       <c r="F266" s="4">
-        <v>70.5</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="G266" s="4">
-        <v>68.5</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="H266" s="4">
-        <v>69</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="I266" s="4">
-        <v>70.900000000000006</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A267" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B267" s="4">
-        <v>68.400000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="C267" s="4">
-        <v>71</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="D267" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E267" s="4">
-        <v>69.5</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="F267" s="4">
-        <v>68.400000000000006</v>
+        <v>71.3</v>
       </c>
       <c r="G267" s="4">
-        <v>65.900000000000006</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="H267" s="4">
-        <v>66.099999999999994</v>
+        <v>70.2</v>
       </c>
       <c r="I267" s="4">
-        <v>68.8</v>
+        <v>72.400000000000006</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A268" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B268" s="4">
-        <v>70.099999999999994</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="C268" s="4">
-        <v>70.900000000000006</v>
+        <v>70.7</v>
       </c>
       <c r="D268" s="4">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="E268" s="4">
-        <v>72.400000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="F268" s="4">
-        <v>71.3</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="G268" s="4">
-        <v>70.400000000000006</v>
+        <v>69.2</v>
       </c>
       <c r="H268" s="4">
-        <v>70.2</v>
+        <v>70.8</v>
       </c>
       <c r="I268" s="4">
-        <v>72.400000000000006</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A269" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B269" s="4">
-        <v>71.099999999999994</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C269" s="4">
-        <v>70.7</v>
+        <v>74.5</v>
       </c>
       <c r="D269" s="4">
-        <v>72.8</v>
+        <v>74.5</v>
       </c>
       <c r="E269" s="4">
-        <v>74.3</v>
+        <v>74.7</v>
       </c>
       <c r="F269" s="4">
-        <v>72.099999999999994</v>
+        <v>73.7</v>
       </c>
       <c r="G269" s="4">
-        <v>69.2</v>
+        <v>71</v>
       </c>
       <c r="H269" s="4">
-        <v>70.8</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="I269" s="4">
-        <v>71.599999999999994</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A270" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B270" s="4">
-        <v>73.400000000000006</v>
+        <v>73</v>
       </c>
       <c r="C270" s="4">
-        <v>74.5</v>
+        <v>73</v>
       </c>
       <c r="D270" s="4">
-        <v>74.5</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="E270" s="4">
-        <v>74.7</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="F270" s="4">
-        <v>73.7</v>
+        <v>73.2</v>
       </c>
       <c r="G270" s="4">
-        <v>71</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="H270" s="4">
-        <v>72.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="I270" s="4">
         <v>74.8</v>
@@ -9178,1371 +9178,1355 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A271" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B271" s="4">
-        <v>73</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="C271" s="4">
-        <v>73</v>
+        <v>75.2</v>
       </c>
       <c r="D271" s="4">
-        <v>73.099999999999994</v>
+        <v>75.3</v>
       </c>
       <c r="E271" s="4">
-        <v>73.900000000000006</v>
+        <v>74.8</v>
       </c>
       <c r="F271" s="4">
-        <v>73.2</v>
+        <v>74</v>
       </c>
       <c r="G271" s="4">
         <v>70.900000000000006</v>
       </c>
       <c r="H271" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I271" s="4">
-        <v>74.8</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A272" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B272" s="4">
-        <v>73.099999999999994</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C272" s="4">
-        <v>75.2</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D272" s="4">
-        <v>75.3</v>
+        <v>74</v>
       </c>
       <c r="E272" s="4">
-        <v>74.8</v>
+        <v>76.8</v>
       </c>
       <c r="F272" s="4">
-        <v>74</v>
+        <v>73.5</v>
       </c>
       <c r="G272" s="4">
-        <v>70.900000000000006</v>
+        <v>71.5</v>
       </c>
       <c r="H272" s="4">
-        <v>73</v>
+        <v>71.7</v>
       </c>
       <c r="I272" s="4">
-        <v>75.099999999999994</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A273" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B273" s="4">
-        <v>76.900000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C273" s="4">
-        <v>75.599999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="D273" s="4">
-        <v>74</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="E273" s="4">
-        <v>76.8</v>
+        <v>73.8</v>
       </c>
       <c r="F273" s="4">
+        <v>73.2</v>
+      </c>
+      <c r="G273" s="4">
+        <v>71</v>
+      </c>
+      <c r="H273" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="I273" s="4">
         <v>73.5</v>
-      </c>
-      <c r="G273" s="4">
-        <v>71.5</v>
-      </c>
-      <c r="H273" s="4">
-        <v>71.7</v>
-      </c>
-      <c r="I273" s="4">
-        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A274" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B274" s="4">
-        <v>73.599999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="C274" s="4">
-        <v>75.2</v>
+        <v>77</v>
       </c>
       <c r="D274" s="4">
-        <v>74.900000000000006</v>
+        <v>76.2</v>
       </c>
       <c r="E274" s="4">
-        <v>73.8</v>
+        <v>76.7</v>
       </c>
       <c r="F274" s="4">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="G274" s="4">
         <v>73.2</v>
       </c>
-      <c r="G274" s="4">
-        <v>71</v>
-      </c>
       <c r="H274" s="4">
-        <v>71.599999999999994</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="I274" s="4">
-        <v>73.5</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A275" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B275" s="4">
-        <v>76.2</v>
+        <v>73</v>
       </c>
       <c r="C275" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D275" s="4">
-        <v>76.2</v>
+        <v>76</v>
       </c>
       <c r="E275" s="4">
-        <v>76.7</v>
+        <v>74.5</v>
       </c>
       <c r="F275" s="4">
-        <v>75.400000000000006</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="G275" s="4">
-        <v>73.2</v>
+        <v>71.5</v>
       </c>
       <c r="H275" s="4">
-        <v>74.599999999999994</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="I275" s="4">
-        <v>75.8</v>
+        <v>73.900000000000006</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A276" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B276" s="4">
-        <v>73</v>
+        <v>73.5</v>
       </c>
       <c r="C276" s="4">
-        <v>76</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="D276" s="4">
-        <v>76</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="E276" s="4">
-        <v>74.5</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="F276" s="4">
-        <v>74.099999999999994</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="G276" s="4">
-        <v>71.5</v>
+        <v>69.8</v>
       </c>
       <c r="H276" s="4">
-        <v>71.900000000000006</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="I276" s="4">
-        <v>73.900000000000006</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A277" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B277" s="4">
-        <v>73.5</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="C277" s="4">
-        <v>74.599999999999994</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="D277" s="4">
-        <v>73.900000000000006</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="E277" s="4">
-        <v>72.599999999999994</v>
+        <v>71.2</v>
       </c>
       <c r="F277" s="4">
-        <v>71.900000000000006</v>
+        <v>71.2</v>
       </c>
       <c r="G277" s="4">
-        <v>69.8</v>
+        <v>70.7</v>
       </c>
       <c r="H277" s="4">
-        <v>70.400000000000006</v>
+        <v>71</v>
       </c>
       <c r="I277" s="4">
-        <v>72.5</v>
+        <v>72.099999999999994</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A278" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B278" s="4">
-        <v>71.900000000000006</v>
+        <v>72.2</v>
       </c>
       <c r="C278" s="4">
-        <v>70.400000000000006</v>
+        <v>72.8</v>
       </c>
       <c r="D278" s="4">
-        <v>73.099999999999994</v>
+        <v>74.5</v>
       </c>
       <c r="E278" s="4">
-        <v>71.2</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="F278" s="4">
-        <v>71.2</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="G278" s="4">
-        <v>70.7</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="H278" s="4">
-        <v>71</v>
+        <v>71.8</v>
       </c>
       <c r="I278" s="4">
-        <v>72.099999999999994</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A279" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B279" s="4">
-        <v>72.2</v>
+        <v>73.3</v>
       </c>
       <c r="C279" s="4">
-        <v>72.8</v>
+        <v>73.8</v>
       </c>
       <c r="D279" s="4">
-        <v>74.5</v>
+        <v>75.8</v>
       </c>
       <c r="E279" s="4">
-        <v>73.599999999999994</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="F279" s="4">
-        <v>73.400000000000006</v>
+        <v>74.8</v>
       </c>
       <c r="G279" s="4">
-        <v>70.599999999999994</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="H279" s="4">
-        <v>71.8</v>
+        <v>73</v>
       </c>
       <c r="I279" s="4">
-        <v>73.3</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A280" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B280" s="4">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="C280" s="4">
-        <v>73.8</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="D280" s="4">
-        <v>75.8</v>
+        <v>71.8</v>
       </c>
       <c r="E280" s="4">
-        <v>74.599999999999994</v>
+        <v>71.5</v>
       </c>
       <c r="F280" s="4">
-        <v>74.8</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="G280" s="4">
-        <v>71.900000000000006</v>
+        <v>67.8</v>
       </c>
       <c r="H280" s="4">
-        <v>73</v>
+        <v>69.2</v>
       </c>
       <c r="I280" s="4">
-        <v>74.7</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A281" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B281" s="4">
-        <v>70</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="C281" s="4">
-        <v>70.599999999999994</v>
+        <v>67.8</v>
       </c>
       <c r="D281" s="4">
-        <v>71.8</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="E281" s="4">
-        <v>71.5</v>
+        <v>68.2</v>
       </c>
       <c r="F281" s="4">
-        <v>70.599999999999994</v>
+        <v>65.3</v>
       </c>
       <c r="G281" s="4">
-        <v>67.8</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="H281" s="4">
-        <v>69.2</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="I281" s="4">
-        <v>70.400000000000006</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A282" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B282" s="4">
-        <v>67.900000000000006</v>
+        <v>68.2</v>
       </c>
       <c r="C282" s="4">
-        <v>67.8</v>
+        <v>68.2</v>
       </c>
       <c r="D282" s="4">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="E282" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="F282" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="G282" s="4">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H282" s="4">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="I282" s="4">
         <v>68.099999999999994</v>
-      </c>
-      <c r="E282" s="4">
-        <v>68.2</v>
-      </c>
-      <c r="F282" s="4">
-        <v>65.3</v>
-      </c>
-      <c r="G282" s="4">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="H282" s="4">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="I282" s="4">
-        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A283" s="3" t="s">
-        <v>232</v>
+        <v>493</v>
       </c>
       <c r="B283" s="4">
-        <v>68.2</v>
+        <v>67.7</v>
       </c>
       <c r="C283" s="4">
-        <v>68.2</v>
+        <v>65.5</v>
       </c>
       <c r="D283" s="4">
-        <v>67.599999999999994</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="E283" s="4">
-        <v>67.5</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="F283" s="4">
-        <v>64.400000000000006</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="G283" s="4">
-        <v>65.599999999999994</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="H283" s="4">
-        <v>67.099999999999994</v>
+        <v>69.2</v>
       </c>
       <c r="I283" s="4">
-        <v>68.099999999999994</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A284" s="3" t="s">
-        <v>493</v>
+        <v>233</v>
       </c>
       <c r="B284" s="4">
-        <v>67.7</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C284" s="4">
-        <v>65.5</v>
+        <v>68.5</v>
       </c>
       <c r="D284" s="4">
-        <v>66.599999999999994</v>
+        <v>68.5</v>
       </c>
       <c r="E284" s="4">
-        <v>67.900000000000006</v>
+        <v>69.7</v>
       </c>
       <c r="F284" s="4">
-        <v>64.900000000000006</v>
+        <v>67.2</v>
       </c>
       <c r="G284" s="4">
-        <v>68.400000000000006</v>
+        <v>68.7</v>
       </c>
       <c r="H284" s="4">
-        <v>69.2</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="I284" s="4">
-        <v>71.2</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A285" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B285" s="4">
-        <v>68.900000000000006</v>
+        <v>67.7</v>
       </c>
       <c r="C285" s="4">
-        <v>68.5</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D285" s="4">
-        <v>68.5</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="E285" s="4">
-        <v>69.7</v>
+        <v>65.5</v>
       </c>
       <c r="F285" s="4">
-        <v>67.2</v>
+        <v>61.7</v>
       </c>
       <c r="G285" s="4">
-        <v>68.7</v>
+        <v>62.3</v>
       </c>
       <c r="H285" s="4">
-        <v>70.099999999999994</v>
+        <v>64</v>
       </c>
       <c r="I285" s="4">
-        <v>71.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A286" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B286" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C286" s="4">
+        <v>64.7</v>
+      </c>
+      <c r="D286" s="4">
+        <v>66</v>
+      </c>
+      <c r="E286" s="4">
+        <v>66.5</v>
+      </c>
+      <c r="F286" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="G286" s="4">
+        <v>66.8</v>
+      </c>
+      <c r="H286" s="4">
         <v>67.7</v>
       </c>
-      <c r="C286" s="4">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="D286" s="4">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="E286" s="4">
-        <v>65.5</v>
-      </c>
-      <c r="F286" s="4">
-        <v>61.7</v>
-      </c>
-      <c r="G286" s="4">
-        <v>62.3</v>
-      </c>
-      <c r="H286" s="4">
-        <v>64</v>
-      </c>
       <c r="I286" s="4">
-        <v>64.5</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A287" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B287" s="4">
-        <v>64.400000000000006</v>
+        <v>63.7</v>
       </c>
       <c r="C287" s="4">
-        <v>64.7</v>
+        <v>62.2</v>
       </c>
       <c r="D287" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E287" s="4">
-        <v>66.5</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="F287" s="4">
-        <v>63.5</v>
+        <v>61.7</v>
       </c>
       <c r="G287" s="4">
-        <v>66.8</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="H287" s="4">
-        <v>67.7</v>
+        <v>65.8</v>
       </c>
       <c r="I287" s="4">
-        <v>69.2</v>
+        <v>67.400000000000006</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A288" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B288" s="4">
-        <v>63.7</v>
+        <v>64.7</v>
       </c>
       <c r="C288" s="4">
-        <v>62.2</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="D288" s="4">
-        <v>65</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E288" s="4">
-        <v>64.599999999999994</v>
+        <v>67.3</v>
       </c>
       <c r="F288" s="4">
-        <v>61.7</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="G288" s="4">
-        <v>64.900000000000006</v>
+        <v>67.7</v>
       </c>
       <c r="H288" s="4">
-        <v>65.8</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="I288" s="4">
-        <v>67.400000000000006</v>
+        <v>70</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A289" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B289" s="4">
-        <v>64.7</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="C289" s="4">
-        <v>65.900000000000006</v>
+        <v>69.3</v>
       </c>
       <c r="D289" s="4">
-        <v>66.400000000000006</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="E289" s="4">
-        <v>67.3</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="F289" s="4">
-        <v>64.400000000000006</v>
+        <v>67.5</v>
       </c>
       <c r="G289" s="4">
-        <v>67.7</v>
+        <v>69.8</v>
       </c>
       <c r="H289" s="4">
-        <v>68.599999999999994</v>
+        <v>70.7</v>
       </c>
       <c r="I289" s="4">
-        <v>70</v>
+        <v>72.400000000000006</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A290" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B290" s="4">
         <v>69.599999999999994</v>
       </c>
       <c r="C290" s="4">
-        <v>69.3</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="D290" s="4">
-        <v>69.900000000000006</v>
+        <v>70</v>
       </c>
       <c r="E290" s="4">
-        <v>70.099999999999994</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F290" s="4">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="G290" s="4">
-        <v>69.8</v>
+        <v>69.7</v>
       </c>
       <c r="H290" s="4">
-        <v>70.7</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="I290" s="4">
-        <v>72.400000000000006</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A291" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B291" s="4">
-        <v>69.599999999999994</v>
+        <v>71.2</v>
       </c>
       <c r="C291" s="4">
-        <v>69.900000000000006</v>
+        <v>70.7</v>
       </c>
       <c r="D291" s="4">
-        <v>70</v>
+        <v>71.5</v>
       </c>
       <c r="E291" s="4">
-        <v>70.400000000000006</v>
+        <v>72.2</v>
       </c>
       <c r="F291" s="4">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="G291" s="4">
-        <v>69.7</v>
+        <v>70.5</v>
       </c>
       <c r="H291" s="4">
-        <v>71.099999999999994</v>
+        <v>70.2</v>
       </c>
       <c r="I291" s="4">
-        <v>72.8</v>
+        <v>72.400000000000006</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A292" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B292" s="4">
-        <v>71.2</v>
+        <v>68.7</v>
       </c>
       <c r="C292" s="4">
-        <v>70.7</v>
+        <v>66.8</v>
       </c>
       <c r="D292" s="4">
-        <v>71.5</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="E292" s="4">
-        <v>72.2</v>
+        <v>68.8</v>
       </c>
       <c r="F292" s="4">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="G292" s="4">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="H292" s="4">
         <v>70.5</v>
       </c>
-      <c r="H292" s="4">
-        <v>70.2</v>
-      </c>
       <c r="I292" s="4">
-        <v>72.400000000000006</v>
+        <v>72</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A293" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B293" s="4">
-        <v>68.7</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="C293" s="4">
-        <v>66.8</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="D293" s="4">
         <v>68.900000000000006</v>
       </c>
       <c r="E293" s="4">
-        <v>68.8</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="F293" s="4">
-        <v>67.2</v>
+        <v>69.5</v>
       </c>
       <c r="G293" s="4">
-        <v>69.400000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="H293" s="4">
-        <v>70.5</v>
+        <v>70.7</v>
       </c>
       <c r="I293" s="4">
-        <v>72</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A294" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B294" s="4">
-        <v>69.400000000000006</v>
+        <v>55.1</v>
       </c>
       <c r="C294" s="4">
-        <v>69.400000000000006</v>
+        <v>53.7</v>
       </c>
       <c r="D294" s="4">
-        <v>68.900000000000006</v>
+        <v>51.7</v>
       </c>
       <c r="E294" s="4">
-        <v>68.599999999999994</v>
+        <v>51.4</v>
       </c>
       <c r="F294" s="4">
-        <v>69.5</v>
+        <v>51.4</v>
       </c>
       <c r="G294" s="4">
-        <v>70.099999999999994</v>
+        <v>52.8</v>
       </c>
       <c r="H294" s="4">
-        <v>70.7</v>
+        <v>54.5</v>
       </c>
       <c r="I294" s="4">
-        <v>71.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A295" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B295" s="4">
-        <v>55.1</v>
+        <v>53.3</v>
       </c>
       <c r="C295" s="4">
-        <v>53.7</v>
+        <v>53.3</v>
       </c>
       <c r="D295" s="4">
+        <v>50.6</v>
+      </c>
+      <c r="E295" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="F295" s="4">
+        <v>50.9</v>
+      </c>
+      <c r="G295" s="4">
         <v>51.7</v>
       </c>
-      <c r="E295" s="4">
-        <v>51.4</v>
-      </c>
-      <c r="F295" s="4">
-        <v>51.4</v>
-      </c>
-      <c r="G295" s="4">
-        <v>52.8</v>
-      </c>
       <c r="H295" s="4">
-        <v>54.5</v>
+        <v>53</v>
       </c>
       <c r="I295" s="4">
-        <v>57</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A296" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B296" s="4">
-        <v>53.3</v>
+        <v>59</v>
       </c>
       <c r="C296" s="4">
-        <v>53.3</v>
+        <v>59.9</v>
       </c>
       <c r="D296" s="4">
-        <v>50.6</v>
+        <v>55.7</v>
       </c>
       <c r="E296" s="4">
-        <v>49.9</v>
+        <v>53.8</v>
       </c>
       <c r="F296" s="4">
-        <v>50.9</v>
+        <v>55</v>
       </c>
       <c r="G296" s="4">
-        <v>51.7</v>
+        <v>55</v>
       </c>
       <c r="H296" s="4">
-        <v>53</v>
+        <v>55.8</v>
       </c>
       <c r="I296" s="4">
-        <v>55.7</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A297" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B297" s="4">
-        <v>59</v>
+        <v>48.7</v>
       </c>
       <c r="C297" s="4">
-        <v>59.9</v>
+        <v>48.5</v>
       </c>
       <c r="D297" s="4">
-        <v>55.7</v>
+        <v>47.3</v>
       </c>
       <c r="E297" s="4">
-        <v>53.8</v>
+        <v>47.3</v>
       </c>
       <c r="F297" s="4">
-        <v>55</v>
+        <v>48.4</v>
       </c>
       <c r="G297" s="4">
-        <v>55</v>
+        <v>49.5</v>
       </c>
       <c r="H297" s="4">
-        <v>55.8</v>
+        <v>51.1</v>
       </c>
       <c r="I297" s="4">
-        <v>58.1</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A298" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B298" s="4">
-        <v>48.7</v>
+        <v>54.2</v>
       </c>
       <c r="C298" s="4">
-        <v>48.5</v>
+        <v>52.1</v>
       </c>
       <c r="D298" s="4">
-        <v>47.3</v>
+        <v>49.7</v>
       </c>
       <c r="E298" s="4">
-        <v>47.3</v>
+        <v>51</v>
       </c>
       <c r="F298" s="4">
-        <v>48.4</v>
+        <v>51.5</v>
       </c>
       <c r="G298" s="4">
-        <v>49.5</v>
+        <v>52</v>
       </c>
       <c r="H298" s="4">
-        <v>51.1</v>
+        <v>53.2</v>
       </c>
       <c r="I298" s="4">
-        <v>54.1</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A299" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B299" s="4">
-        <v>54.2</v>
+        <v>56.7</v>
       </c>
       <c r="C299" s="4">
-        <v>52.1</v>
+        <v>53.7</v>
       </c>
       <c r="D299" s="4">
-        <v>49.7</v>
+        <v>52.2</v>
       </c>
       <c r="E299" s="4">
-        <v>51</v>
+        <v>54.7</v>
       </c>
       <c r="F299" s="4">
-        <v>51.5</v>
+        <v>54.1</v>
       </c>
       <c r="G299" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H299" s="4">
-        <v>53.2</v>
+        <v>55.2</v>
       </c>
       <c r="I299" s="4">
-        <v>55.8</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A300" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B300" s="4">
-        <v>56.7</v>
+        <v>51.7</v>
       </c>
       <c r="C300" s="4">
-        <v>53.7</v>
+        <v>50.4</v>
       </c>
       <c r="D300" s="4">
-        <v>52.2</v>
+        <v>46.2</v>
       </c>
       <c r="E300" s="4">
-        <v>54.7</v>
+        <v>46.4</v>
       </c>
       <c r="F300" s="4">
-        <v>54.1</v>
+        <v>48.9</v>
       </c>
       <c r="G300" s="4">
-        <v>54</v>
+        <v>48.3</v>
       </c>
       <c r="H300" s="4">
-        <v>55.2</v>
+        <v>49.4</v>
       </c>
       <c r="I300" s="4">
-        <v>57.6</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A301" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B301" s="4">
-        <v>51.7</v>
+        <v>49.6</v>
       </c>
       <c r="C301" s="4">
-        <v>50.4</v>
+        <v>49.8</v>
       </c>
       <c r="D301" s="4">
+        <v>46.9</v>
+      </c>
+      <c r="E301" s="4">
         <v>46.2</v>
       </c>
-      <c r="E301" s="4">
-        <v>46.4</v>
-      </c>
       <c r="F301" s="4">
-        <v>48.9</v>
+        <v>46.9</v>
       </c>
       <c r="G301" s="4">
-        <v>48.3</v>
+        <v>51.1</v>
       </c>
       <c r="H301" s="4">
-        <v>49.4</v>
+        <v>52.7</v>
       </c>
       <c r="I301" s="4">
-        <v>51.9</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A302" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B302" s="4">
-        <v>49.6</v>
+        <v>52.1</v>
       </c>
       <c r="C302" s="4">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="D302" s="4">
-        <v>46.9</v>
+        <v>49.1</v>
       </c>
       <c r="E302" s="4">
-        <v>46.2</v>
+        <v>47.4</v>
       </c>
       <c r="F302" s="4">
         <v>46.9</v>
       </c>
       <c r="G302" s="4">
-        <v>51.1</v>
+        <v>50.1</v>
       </c>
       <c r="H302" s="4">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="I302" s="4">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A303" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B303" s="4">
-        <v>52.1</v>
+        <v>50.7</v>
       </c>
       <c r="C303" s="4">
-        <v>49.4</v>
+        <v>48.1</v>
       </c>
       <c r="D303" s="4">
-        <v>49.1</v>
+        <v>48.6</v>
       </c>
       <c r="E303" s="4">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="F303" s="4">
-        <v>46.9</v>
+        <v>46.1</v>
       </c>
       <c r="G303" s="4">
-        <v>50.1</v>
+        <v>49.3</v>
       </c>
       <c r="H303" s="4">
-        <v>52.9</v>
+        <v>52.5</v>
       </c>
       <c r="I303" s="4">
-        <v>55.2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A304" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B304" s="4">
-        <v>50.7</v>
+        <v>55.9</v>
       </c>
       <c r="C304" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="D304" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="E304" s="4">
         <v>48.1</v>
       </c>
-      <c r="D304" s="4">
-        <v>48.6</v>
-      </c>
-      <c r="E304" s="4">
-        <v>47.2</v>
-      </c>
       <c r="F304" s="4">
-        <v>46.1</v>
+        <v>49.4</v>
       </c>
       <c r="G304" s="4">
-        <v>49.3</v>
+        <v>52.5</v>
       </c>
       <c r="H304" s="4">
-        <v>52.5</v>
+        <v>54.3</v>
       </c>
       <c r="I304" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A305" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B305" s="4">
-        <v>55.9</v>
+        <v>52.1</v>
       </c>
       <c r="C305" s="4">
-        <v>52.8</v>
+        <v>51.6</v>
       </c>
       <c r="D305" s="4">
-        <v>50.5</v>
+        <v>49.1</v>
       </c>
       <c r="E305" s="4">
-        <v>48.1</v>
+        <v>49.5</v>
       </c>
       <c r="F305" s="4">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="G305" s="4">
-        <v>52.5</v>
+        <v>50.6</v>
       </c>
       <c r="H305" s="4">
-        <v>54.3</v>
+        <v>51.7</v>
       </c>
       <c r="I305" s="4">
-        <v>56</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A306" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B306" s="4">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="C306" s="4">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
       <c r="D306" s="4">
-        <v>49.1</v>
+        <v>50.3</v>
       </c>
       <c r="E306" s="4">
-        <v>49.5</v>
+        <v>51.9</v>
       </c>
       <c r="F306" s="4">
-        <v>49.5</v>
+        <v>51.9</v>
       </c>
       <c r="G306" s="4">
-        <v>50.6</v>
+        <v>51.5</v>
       </c>
       <c r="H306" s="4">
-        <v>51.7</v>
+        <v>51.2</v>
       </c>
       <c r="I306" s="4">
-        <v>54.9</v>
-      </c>
+        <v>53.8</v>
+      </c>
+      <c r="K306" s="7"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A307" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B307" s="4">
-        <v>52.5</v>
+        <v>50.5</v>
       </c>
       <c r="C307" s="4">
-        <v>51.8</v>
+        <v>49.3</v>
       </c>
       <c r="D307" s="4">
-        <v>50.3</v>
+        <v>45</v>
       </c>
       <c r="E307" s="4">
-        <v>51.9</v>
+        <v>46</v>
       </c>
       <c r="F307" s="4">
-        <v>51.9</v>
+        <v>45.9</v>
       </c>
       <c r="G307" s="4">
-        <v>51.5</v>
+        <v>48.7</v>
       </c>
       <c r="H307" s="4">
-        <v>51.2</v>
+        <v>50.7</v>
       </c>
       <c r="I307" s="4">
-        <v>53.8</v>
-      </c>
-      <c r="K307" s="7"/>
+        <v>54.4</v>
+      </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A308" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B308" s="4">
+        <v>53</v>
+      </c>
+      <c r="C308" s="4">
+        <v>53.3</v>
+      </c>
+      <c r="D308" s="4">
         <v>50.5</v>
       </c>
-      <c r="C308" s="4">
-        <v>49.3</v>
-      </c>
-      <c r="D308" s="4">
-        <v>45</v>
-      </c>
       <c r="E308" s="4">
-        <v>46</v>
+        <v>49.4</v>
       </c>
       <c r="F308" s="4">
-        <v>45.9</v>
+        <v>49.2</v>
       </c>
       <c r="G308" s="4">
-        <v>48.7</v>
+        <v>51</v>
       </c>
       <c r="H308" s="4">
-        <v>50.7</v>
+        <v>53.2</v>
       </c>
       <c r="I308" s="4">
-        <v>54.4</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A309" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B309" s="4">
-        <v>53</v>
+        <v>55.2</v>
       </c>
       <c r="C309" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="D309" s="4">
+        <v>52.6</v>
+      </c>
+      <c r="E309" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="F309" s="4">
+        <v>51.7</v>
+      </c>
+      <c r="G309" s="4">
         <v>53.3</v>
       </c>
-      <c r="D309" s="4">
-        <v>50.5</v>
-      </c>
-      <c r="E309" s="4">
-        <v>49.4</v>
-      </c>
-      <c r="F309" s="4">
-        <v>49.2</v>
-      </c>
-      <c r="G309" s="4">
+      <c r="H309" s="4">
+        <v>55.7</v>
+      </c>
+      <c r="I309" s="4">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A310" t="s">
+        <v>465</v>
+      </c>
+      <c r="B310" s="4">
+        <v>56</v>
+      </c>
+      <c r="C310" s="4">
+        <v>53.7</v>
+      </c>
+      <c r="D310" s="4">
+        <v>53.3</v>
+      </c>
+      <c r="E310" s="4">
+        <v>53.3</v>
+      </c>
+      <c r="F310" s="4">
+        <v>52.9</v>
+      </c>
+      <c r="G310" s="4">
+        <v>54.1</v>
+      </c>
+      <c r="H310" s="4">
+        <v>56.2</v>
+      </c>
+      <c r="I310" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A311" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B311" s="4">
+        <v>53.4</v>
+      </c>
+      <c r="C311" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="D311" s="4">
+        <v>51.2</v>
+      </c>
+      <c r="E311" s="4">
         <v>51</v>
       </c>
-      <c r="H309" s="4">
-        <v>53.2</v>
-      </c>
-      <c r="I309" s="4">
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A310" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B310" s="4">
-        <v>55.2</v>
-      </c>
-      <c r="C310" s="4">
-        <v>52.5</v>
-      </c>
-      <c r="D310" s="4">
-        <v>52.6</v>
-      </c>
-      <c r="E310" s="4">
-        <v>52.5</v>
-      </c>
-      <c r="F310" s="4">
-        <v>51.7</v>
-      </c>
-      <c r="G310" s="4">
-        <v>53.3</v>
-      </c>
-      <c r="H310" s="4">
-        <v>55.7</v>
-      </c>
-      <c r="I310" s="4">
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A311" t="s">
-        <v>465</v>
-      </c>
-      <c r="B311" s="4">
-        <v>56</v>
-      </c>
-      <c r="C311" s="4">
-        <v>53.7</v>
-      </c>
-      <c r="D311" s="4">
-        <v>53.3</v>
-      </c>
-      <c r="E311" s="4">
-        <v>53.3</v>
-      </c>
       <c r="F311" s="4">
-        <v>52.9</v>
+        <v>49.3</v>
       </c>
       <c r="G311" s="4">
-        <v>54.1</v>
+        <v>51.6</v>
       </c>
       <c r="H311" s="4">
-        <v>56.2</v>
+        <v>54.7</v>
       </c>
       <c r="I311" s="4">
-        <v>59</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A312" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B312" s="4">
-        <v>53.4</v>
+        <v>58.4</v>
       </c>
       <c r="C312" s="4">
-        <v>49.8</v>
+        <v>57</v>
       </c>
       <c r="D312" s="4">
-        <v>51.2</v>
+        <v>55.4</v>
       </c>
       <c r="E312" s="4">
-        <v>51</v>
+        <v>53.7</v>
       </c>
       <c r="F312" s="4">
-        <v>49.3</v>
+        <v>53.3</v>
       </c>
       <c r="G312" s="4">
-        <v>51.6</v>
+        <v>54.8</v>
       </c>
       <c r="H312" s="4">
-        <v>54.7</v>
+        <v>55.7</v>
       </c>
       <c r="I312" s="4">
-        <v>58.3</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A313" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B313" s="4">
-        <v>58.4</v>
+        <v>60.2</v>
       </c>
       <c r="C313" s="4">
-        <v>57</v>
+        <v>57.7</v>
       </c>
       <c r="D313" s="4">
-        <v>55.4</v>
+        <v>56.6</v>
       </c>
       <c r="E313" s="4">
-        <v>53.7</v>
+        <v>55.8</v>
       </c>
       <c r="F313" s="4">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="G313" s="4">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="H313" s="4">
-        <v>55.7</v>
+        <v>56.9</v>
       </c>
       <c r="I313" s="4">
-        <v>58.4</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A314" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B314" s="4">
-        <v>60.2</v>
+        <v>56.3</v>
       </c>
       <c r="C314" s="4">
-        <v>57.7</v>
+        <v>55.2</v>
       </c>
       <c r="D314" s="4">
-        <v>56.6</v>
+        <v>54.1</v>
       </c>
       <c r="E314" s="4">
-        <v>55.8</v>
+        <v>51.1</v>
       </c>
       <c r="F314" s="4">
-        <v>53.5</v>
+        <v>51</v>
       </c>
       <c r="G314" s="4">
-        <v>56</v>
+        <v>52.3</v>
       </c>
       <c r="H314" s="4">
-        <v>56.9</v>
+        <v>53.7</v>
       </c>
       <c r="I314" s="4">
-        <v>59.8</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A315" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B315" s="4">
-        <v>56.3</v>
+        <v>58.4</v>
       </c>
       <c r="C315" s="4">
+        <v>58.4</v>
+      </c>
+      <c r="D315" s="4">
         <v>55.2</v>
       </c>
-      <c r="D315" s="4">
+      <c r="E315" s="4">
         <v>54.1</v>
       </c>
-      <c r="E315" s="4">
-        <v>51.1</v>
-      </c>
       <c r="F315" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G315" s="4">
-        <v>52.3</v>
+        <v>56.9</v>
       </c>
       <c r="H315" s="4">
-        <v>53.7</v>
+        <v>57</v>
       </c>
       <c r="I315" s="4">
-        <v>56.5</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A316" s="3" t="s">
-        <v>263</v>
+      <c r="A316" t="s">
+        <v>466</v>
       </c>
       <c r="B316" s="4">
-        <v>58.4</v>
+        <v>61.2</v>
       </c>
       <c r="C316" s="4">
-        <v>58.4</v>
+        <v>59</v>
       </c>
       <c r="D316" s="4">
-        <v>55.2</v>
+        <v>56.6</v>
       </c>
       <c r="E316" s="4">
-        <v>54.1</v>
+        <v>55.9</v>
       </c>
       <c r="F316" s="4">
-        <v>57</v>
+        <v>55.4</v>
       </c>
       <c r="G316" s="4">
-        <v>56.9</v>
+        <v>57.6</v>
       </c>
       <c r="H316" s="4">
-        <v>57</v>
+        <v>58.8</v>
       </c>
       <c r="I316" s="4">
-        <v>59.2</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A317" t="s">
-        <v>466</v>
-      </c>
-      <c r="B317" s="4">
-        <v>61.2</v>
-      </c>
-      <c r="C317" s="4">
-        <v>59</v>
-      </c>
-      <c r="D317" s="4">
-        <v>56.6</v>
-      </c>
-      <c r="E317" s="4">
-        <v>55.9</v>
-      </c>
-      <c r="F317" s="4">
-        <v>55.4</v>
-      </c>
-      <c r="G317" s="4">
-        <v>57.6</v>
-      </c>
-      <c r="H317" s="4">
-        <v>58.8</v>
-      </c>
-      <c r="I317" s="4">
-        <v>60.9</v>
-      </c>
+      <c r="A317" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B317" s="4"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4"/>
+      <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
+      <c r="H317" s="4"/>
+      <c r="I317" s="4"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A318" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -10555,223 +10539,239 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A319" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="4"/>
-      <c r="G319" s="4"/>
-      <c r="H319" s="4"/>
-      <c r="I319" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="B319" s="4">
+        <v>68.2</v>
+      </c>
+      <c r="C319" s="4">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D319" s="4">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="E319" s="4">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="F319" s="4">
+        <v>67.8</v>
+      </c>
+      <c r="G319" s="4">
+        <v>67.3</v>
+      </c>
+      <c r="H319" s="4">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="I319" s="4">
+        <v>67.599999999999994</v>
+      </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A320" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B320" s="4">
-        <v>68.2</v>
+        <v>68.5</v>
       </c>
       <c r="C320" s="4">
-        <v>68.900000000000006</v>
+        <v>69.2</v>
       </c>
       <c r="D320" s="4">
-        <v>69.099999999999994</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E320" s="4">
-        <v>68.099999999999994</v>
+        <v>68.3</v>
       </c>
       <c r="F320" s="4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="G320" s="4">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="H320" s="4">
         <v>67.8</v>
       </c>
-      <c r="G320" s="4">
-        <v>67.3</v>
-      </c>
-      <c r="H320" s="4">
-        <v>67.599999999999994</v>
-      </c>
       <c r="I320" s="4">
-        <v>67.599999999999994</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A321" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B321" s="4">
-        <v>68.5</v>
+        <v>67.7</v>
       </c>
       <c r="C321" s="4">
-        <v>69.2</v>
+        <v>68.8</v>
       </c>
       <c r="D321" s="4">
-        <v>69.400000000000006</v>
+        <v>68.8</v>
       </c>
       <c r="E321" s="4">
-        <v>68.3</v>
+        <v>67.2</v>
       </c>
       <c r="F321" s="4">
-        <v>67.900000000000006</v>
+        <v>66.2</v>
       </c>
       <c r="G321" s="4">
-        <v>67.400000000000006</v>
+        <v>65.8</v>
       </c>
       <c r="H321" s="4">
-        <v>67.8</v>
+        <v>66.2</v>
       </c>
       <c r="I321" s="4">
-        <v>67.8</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A322" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B322" s="4">
-        <v>67.7</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C322" s="4">
-        <v>68.8</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D322" s="4">
-        <v>68.8</v>
+        <v>69.5</v>
       </c>
       <c r="E322" s="4">
-        <v>67.2</v>
+        <v>68.5</v>
       </c>
       <c r="F322" s="4">
-        <v>66.2</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="G322" s="4">
-        <v>65.8</v>
+        <v>68</v>
       </c>
       <c r="H322" s="4">
-        <v>66.2</v>
+        <v>69.5</v>
       </c>
       <c r="I322" s="4">
-        <v>65.900000000000006</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A323" s="3" t="s">
-        <v>269</v>
+        <v>467</v>
       </c>
       <c r="B323" s="4">
-        <v>68.400000000000006</v>
+        <v>72.7</v>
       </c>
       <c r="C323" s="4">
-        <v>68.400000000000006</v>
+        <v>71.7</v>
       </c>
       <c r="D323" s="4">
-        <v>69.5</v>
+        <v>73.2</v>
       </c>
       <c r="E323" s="4">
-        <v>68.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F323" s="4">
-        <v>69.400000000000006</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="G323" s="4">
-        <v>68</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="H323" s="4">
-        <v>69.5</v>
+        <v>71.5</v>
       </c>
       <c r="I323" s="4">
-        <v>69.5</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A324" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B324" s="4">
-        <v>72.7</v>
+        <v>67.5</v>
       </c>
       <c r="C324" s="4">
-        <v>71.7</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="D324" s="4">
-        <v>73.2</v>
+        <v>68</v>
       </c>
       <c r="E324" s="4">
-        <v>72.900000000000006</v>
+        <v>66.7</v>
       </c>
       <c r="F324" s="4">
-        <v>72.099999999999994</v>
+        <v>66.7</v>
       </c>
       <c r="G324" s="4">
-        <v>71.400000000000006</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="H324" s="4">
-        <v>71.5</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="I324" s="4">
-        <v>71.599999999999994</v>
+        <v>67</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A325" s="3" t="s">
-        <v>468</v>
+        <v>270</v>
       </c>
       <c r="B325" s="4">
-        <v>67.5</v>
+        <v>63.4</v>
       </c>
       <c r="C325" s="4">
-        <v>68.900000000000006</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="D325" s="4">
-        <v>68</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="E325" s="4">
-        <v>66.7</v>
+        <v>65.5</v>
       </c>
       <c r="F325" s="4">
         <v>66.7</v>
       </c>
       <c r="G325" s="4">
-        <v>66.400000000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="H325" s="4">
-        <v>66.599999999999994</v>
+        <v>67.5</v>
       </c>
       <c r="I325" s="4">
-        <v>67</v>
+        <v>67.400000000000006</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A326" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B326" s="4">
-        <v>63.4</v>
+        <v>59.6</v>
       </c>
       <c r="C326" s="4">
-        <v>64.900000000000006</v>
+        <v>60.4</v>
       </c>
       <c r="D326" s="4">
-        <v>65.400000000000006</v>
+        <v>62.4</v>
       </c>
       <c r="E326" s="4">
-        <v>65.5</v>
+        <v>61.6</v>
       </c>
       <c r="F326" s="4">
-        <v>66.7</v>
+        <v>63.3</v>
       </c>
       <c r="G326" s="4">
-        <v>66.900000000000006</v>
+        <v>63</v>
       </c>
       <c r="H326" s="4">
-        <v>67.5</v>
+        <v>63.6</v>
       </c>
       <c r="I326" s="4">
-        <v>67.400000000000006</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A327" s="3" t="s">
-        <v>271</v>
+      <c r="A327" t="s">
+        <v>469</v>
       </c>
       <c r="B327" s="4">
         <v>59.6</v>
@@ -10799,37 +10799,37 @@
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A328" t="s">
-        <v>469</v>
+      <c r="A328" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="B328" s="4">
-        <v>59.6</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="C328" s="4">
-        <v>60.4</v>
+        <v>63.8</v>
       </c>
       <c r="D328" s="4">
-        <v>62.4</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="E328" s="4">
-        <v>61.6</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="F328" s="4">
-        <v>63.3</v>
+        <v>66.8</v>
       </c>
       <c r="G328" s="4">
-        <v>63</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="H328" s="4">
-        <v>63.6</v>
+        <v>66.5</v>
       </c>
       <c r="I328" s="4">
-        <v>63.1</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A329" s="3" t="s">
-        <v>272</v>
+        <v>470</v>
       </c>
       <c r="B329" s="4">
         <v>64.099999999999994</v>
@@ -10858,413 +10858,413 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A330" s="3" t="s">
-        <v>470</v>
+        <v>273</v>
       </c>
       <c r="B330" s="4">
-        <v>64.099999999999994</v>
+        <v>64.2</v>
       </c>
       <c r="C330" s="4">
-        <v>63.8</v>
+        <v>63.3</v>
       </c>
       <c r="D330" s="4">
-        <v>66.900000000000006</v>
+        <v>58.6</v>
       </c>
       <c r="E330" s="4">
-        <v>67.099999999999994</v>
+        <v>58.7</v>
       </c>
       <c r="F330" s="4">
-        <v>66.8</v>
+        <v>58.7</v>
       </c>
       <c r="G330" s="4">
-        <v>67.400000000000006</v>
+        <v>57.6</v>
       </c>
       <c r="H330" s="4">
-        <v>66.5</v>
+        <v>58.8</v>
       </c>
       <c r="I330" s="4">
-        <v>65.7</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A331" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B331" s="4">
-        <v>64.2</v>
+        <v>62.2</v>
       </c>
       <c r="C331" s="4">
-        <v>63.3</v>
+        <v>62.8</v>
       </c>
       <c r="D331" s="4">
-        <v>58.6</v>
+        <v>58.1</v>
       </c>
       <c r="E331" s="4">
-        <v>58.7</v>
+        <v>56.5</v>
       </c>
       <c r="F331" s="4">
-        <v>58.7</v>
+        <v>55.8</v>
       </c>
       <c r="G331" s="4">
-        <v>57.6</v>
+        <v>55</v>
       </c>
       <c r="H331" s="4">
-        <v>58.8</v>
+        <v>56.5</v>
       </c>
       <c r="I331" s="4">
-        <v>58.8</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A332" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B332" s="4">
-        <v>62.2</v>
+        <v>63.2</v>
       </c>
       <c r="C332" s="4">
-        <v>62.8</v>
+        <v>63.4</v>
       </c>
       <c r="D332" s="4">
         <v>58.1</v>
       </c>
       <c r="E332" s="4">
-        <v>56.5</v>
+        <v>56.8</v>
       </c>
       <c r="F332" s="4">
-        <v>55.8</v>
+        <v>56.9</v>
       </c>
       <c r="G332" s="4">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="H332" s="4">
-        <v>56.5</v>
+        <v>57.1</v>
       </c>
       <c r="I332" s="4">
-        <v>56.1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A333" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B333" s="4">
-        <v>63.2</v>
+        <v>61.1</v>
       </c>
       <c r="C333" s="4">
-        <v>63.4</v>
+        <v>62.2</v>
       </c>
       <c r="D333" s="4">
-        <v>58.1</v>
+        <v>58</v>
       </c>
       <c r="E333" s="4">
-        <v>56.8</v>
+        <v>56.1</v>
       </c>
       <c r="F333" s="4">
-        <v>56.9</v>
+        <v>54.6</v>
       </c>
       <c r="G333" s="4">
+        <v>54.1</v>
+      </c>
+      <c r="H333" s="4">
         <v>55.9</v>
       </c>
-      <c r="H333" s="4">
-        <v>57.1</v>
-      </c>
       <c r="I333" s="4">
-        <v>57</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A334" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B334" s="4">
-        <v>61.1</v>
+        <v>64.8</v>
       </c>
       <c r="C334" s="4">
-        <v>62.2</v>
+        <v>63.3</v>
       </c>
       <c r="D334" s="4">
-        <v>58</v>
+        <v>58.7</v>
       </c>
       <c r="E334" s="4">
-        <v>56.1</v>
+        <v>60.2</v>
       </c>
       <c r="F334" s="4">
-        <v>54.6</v>
+        <v>60.3</v>
       </c>
       <c r="G334" s="4">
-        <v>54.1</v>
+        <v>58.4</v>
       </c>
       <c r="H334" s="4">
-        <v>55.9</v>
+        <v>58.4</v>
       </c>
       <c r="I334" s="4">
-        <v>55.1</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A335" s="3" t="s">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="B335" s="4">
-        <v>64.8</v>
+        <v>67.2</v>
       </c>
       <c r="C335" s="4">
-        <v>63.3</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="D335" s="4">
-        <v>58.7</v>
+        <v>60.9</v>
       </c>
       <c r="E335" s="4">
-        <v>60.2</v>
+        <v>62.7</v>
       </c>
       <c r="F335" s="4">
-        <v>60.3</v>
+        <v>63.6</v>
       </c>
       <c r="G335" s="4">
-        <v>58.4</v>
+        <v>61.4</v>
       </c>
       <c r="H335" s="4">
-        <v>58.4</v>
+        <v>60</v>
       </c>
       <c r="I335" s="4">
-        <v>58.4</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A336" s="3" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="B336" s="4">
-        <v>67.2</v>
+        <v>61.9</v>
       </c>
       <c r="C336" s="4">
-        <v>66.900000000000006</v>
+        <v>58.9</v>
       </c>
       <c r="D336" s="4">
-        <v>60.9</v>
+        <v>56</v>
       </c>
       <c r="E336" s="4">
-        <v>62.7</v>
+        <v>57.2</v>
       </c>
       <c r="F336" s="4">
-        <v>63.6</v>
+        <v>56.2</v>
       </c>
       <c r="G336" s="4">
-        <v>61.4</v>
+        <v>54.6</v>
       </c>
       <c r="H336" s="4">
-        <v>60</v>
+        <v>56.3</v>
       </c>
       <c r="I336" s="4">
-        <v>61.3</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A337" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B337" s="4">
-        <v>61.9</v>
+        <v>63.9</v>
       </c>
       <c r="C337" s="4">
-        <v>58.9</v>
+        <v>61.4</v>
       </c>
       <c r="D337" s="4">
-        <v>56</v>
+        <v>57.7</v>
       </c>
       <c r="E337" s="4">
-        <v>57.2</v>
+        <v>58.3</v>
       </c>
       <c r="F337" s="4">
-        <v>56.2</v>
+        <v>59.2</v>
       </c>
       <c r="G337" s="4">
-        <v>54.6</v>
+        <v>58.5</v>
       </c>
       <c r="H337" s="4">
-        <v>56.3</v>
+        <v>60.9</v>
       </c>
       <c r="I337" s="4">
-        <v>54.7</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A338" s="3" t="s">
-        <v>279</v>
+      <c r="A338" t="s">
+        <v>471</v>
       </c>
       <c r="B338" s="4">
-        <v>63.9</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="C338" s="4">
-        <v>61.4</v>
+        <v>65.5</v>
       </c>
       <c r="D338" s="4">
-        <v>57.7</v>
+        <v>58.4</v>
       </c>
       <c r="E338" s="4">
-        <v>58.3</v>
+        <v>59.8</v>
       </c>
       <c r="F338" s="4">
-        <v>59.2</v>
+        <v>59.5</v>
       </c>
       <c r="G338" s="4">
-        <v>58.5</v>
+        <v>57.9</v>
       </c>
       <c r="H338" s="4">
-        <v>60.9</v>
+        <v>59.6</v>
       </c>
       <c r="I338" s="4">
-        <v>61.3</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B339" s="4">
-        <v>66.900000000000006</v>
+        <v>59.5</v>
       </c>
       <c r="C339" s="4">
-        <v>65.5</v>
+        <v>55.5</v>
       </c>
       <c r="D339" s="4">
+        <v>56.6</v>
+      </c>
+      <c r="E339" s="4">
+        <v>56.2</v>
+      </c>
+      <c r="F339" s="4">
+        <v>58.7</v>
+      </c>
+      <c r="G339" s="4">
+        <v>59.3</v>
+      </c>
+      <c r="H339" s="4">
+        <v>62.8</v>
+      </c>
+      <c r="I339" s="4">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A340" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B340" s="4">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="C340" s="4">
+        <v>66.5</v>
+      </c>
+      <c r="D340" s="4">
+        <v>60.3</v>
+      </c>
+      <c r="E340" s="4">
+        <v>59.7</v>
+      </c>
+      <c r="F340" s="4">
+        <v>59.4</v>
+      </c>
+      <c r="G340" s="4">
         <v>58.4</v>
       </c>
-      <c r="E339" s="4">
-        <v>59.8</v>
-      </c>
-      <c r="F339" s="4">
+      <c r="H340" s="4">
+        <v>59.4</v>
+      </c>
+      <c r="I340" s="4">
         <v>59.5</v>
-      </c>
-      <c r="G339" s="4">
-        <v>57.9</v>
-      </c>
-      <c r="H339" s="4">
-        <v>59.6</v>
-      </c>
-      <c r="I339" s="4">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A340" t="s">
-        <v>472</v>
-      </c>
-      <c r="B340" s="4">
-        <v>59.5</v>
-      </c>
-      <c r="C340" s="4">
-        <v>55.5</v>
-      </c>
-      <c r="D340" s="4">
-        <v>56.6</v>
-      </c>
-      <c r="E340" s="4">
-        <v>56.2</v>
-      </c>
-      <c r="F340" s="4">
-        <v>58.7</v>
-      </c>
-      <c r="G340" s="4">
-        <v>59.3</v>
-      </c>
-      <c r="H340" s="4">
-        <v>62.8</v>
-      </c>
-      <c r="I340" s="4">
-        <v>62.4</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A341" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B341" s="4">
-        <v>66.099999999999994</v>
+        <v>70</v>
       </c>
       <c r="C341" s="4">
-        <v>66.5</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="D341" s="4">
-        <v>60.3</v>
+        <v>62.4</v>
       </c>
       <c r="E341" s="4">
-        <v>59.7</v>
+        <v>62.3</v>
       </c>
       <c r="F341" s="4">
-        <v>59.4</v>
+        <v>61.3</v>
       </c>
       <c r="G341" s="4">
-        <v>58.4</v>
+        <v>60.1</v>
       </c>
       <c r="H341" s="4">
-        <v>59.4</v>
+        <v>60</v>
       </c>
       <c r="I341" s="4">
-        <v>59.5</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A342" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B342" s="4">
-        <v>70</v>
+        <v>61.6</v>
       </c>
       <c r="C342" s="4">
-        <v>70.400000000000006</v>
+        <v>61.9</v>
       </c>
       <c r="D342" s="4">
-        <v>62.4</v>
+        <v>57.8</v>
       </c>
       <c r="E342" s="4">
-        <v>62.3</v>
+        <v>56.7</v>
       </c>
       <c r="F342" s="4">
-        <v>61.3</v>
+        <v>57.3</v>
       </c>
       <c r="G342" s="4">
-        <v>60.1</v>
+        <v>56.5</v>
       </c>
       <c r="H342" s="4">
-        <v>60</v>
+        <v>58.6</v>
       </c>
       <c r="I342" s="4">
-        <v>59.3</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A343" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B343" s="4">
-        <v>61.6</v>
+        <v>62.7</v>
       </c>
       <c r="C343" s="4">
-        <v>61.9</v>
+        <v>63.6</v>
       </c>
       <c r="D343" s="4">
-        <v>57.8</v>
+        <v>64.3</v>
       </c>
       <c r="E343" s="4">
-        <v>56.7</v>
+        <v>62.5</v>
       </c>
       <c r="F343" s="4">
-        <v>57.3</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="G343" s="4">
-        <v>56.5</v>
+        <v>66</v>
       </c>
       <c r="H343" s="4">
-        <v>58.6</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="I343" s="4">
-        <v>59.6</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A344" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B344" s="4">
         <v>62.7</v>
@@ -11293,116 +11293,116 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A345" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B345" s="4">
-        <v>62.7</v>
-      </c>
-      <c r="C345" s="4">
-        <v>63.6</v>
-      </c>
-      <c r="D345" s="4">
-        <v>64.3</v>
-      </c>
-      <c r="E345" s="4">
-        <v>62.5</v>
-      </c>
-      <c r="F345" s="4">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="G345" s="4">
-        <v>66</v>
-      </c>
-      <c r="H345" s="4">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="I345" s="4">
-        <v>67.8</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B345" s="4"/>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
+      <c r="I345" s="4"/>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A346" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
-      <c r="E346" s="4"/>
-      <c r="F346" s="4"/>
-      <c r="G346" s="4"/>
-      <c r="H346" s="4"/>
-      <c r="I346" s="4"/>
+      <c r="C346" s="4">
+        <v>62.9</v>
+      </c>
+      <c r="D346" s="4">
+        <v>63.4</v>
+      </c>
+      <c r="E346" s="4">
+        <v>60.8</v>
+      </c>
+      <c r="F346" s="4">
+        <v>64</v>
+      </c>
+      <c r="G346" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H346" s="4">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="I346" s="4">
+        <v>66.400000000000006</v>
+      </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A347" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B347" s="4"/>
-      <c r="C347" s="4">
-        <v>62.9</v>
-      </c>
-      <c r="D347" s="4">
-        <v>63.4</v>
-      </c>
-      <c r="E347" s="4">
-        <v>60.8</v>
-      </c>
-      <c r="F347" s="4">
-        <v>64</v>
-      </c>
-      <c r="G347" s="4">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="H347" s="4">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="I347" s="4">
-        <v>66.400000000000006</v>
-      </c>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4"/>
+      <c r="F347" s="4"/>
+      <c r="G347" s="4"/>
+      <c r="H347" s="4"/>
+      <c r="I347" s="4"/>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A348" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
-      <c r="E348" s="4"/>
-      <c r="F348" s="4"/>
-      <c r="G348" s="4"/>
-      <c r="H348" s="4"/>
-      <c r="I348" s="4"/>
+      <c r="C348" s="4">
+        <v>64.5</v>
+      </c>
+      <c r="D348" s="4">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E348" s="4">
+        <v>64.5</v>
+      </c>
+      <c r="F348" s="4">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G348" s="4">
+        <v>67.8</v>
+      </c>
+      <c r="H348" s="4">
+        <v>68.5</v>
+      </c>
+      <c r="I348" s="4">
+        <v>69.400000000000006</v>
+      </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A349" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B349" s="4"/>
+        <v>289</v>
+      </c>
+      <c r="B349" s="4">
+        <v>56.3</v>
+      </c>
       <c r="C349" s="4">
-        <v>64.5</v>
+        <v>56.7</v>
       </c>
       <c r="D349" s="4">
-        <v>65.400000000000006</v>
+        <v>56.5</v>
       </c>
       <c r="E349" s="4">
-        <v>64.5</v>
+        <v>57.9</v>
       </c>
       <c r="F349" s="4">
-        <v>67.599999999999994</v>
+        <v>56.7</v>
       </c>
       <c r="G349" s="4">
-        <v>67.8</v>
+        <v>57.7</v>
       </c>
       <c r="H349" s="4">
-        <v>68.5</v>
+        <v>59.4</v>
       </c>
       <c r="I349" s="4">
-        <v>69.400000000000006</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A350" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B350" s="4">
         <v>56.3</v>
@@ -11431,152 +11431,152 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A351" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B351" s="4">
-        <v>56.3</v>
+        <v>70.2</v>
       </c>
       <c r="C351" s="4">
-        <v>56.7</v>
+        <v>69.5</v>
       </c>
       <c r="D351" s="4">
-        <v>56.5</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="E351" s="4">
-        <v>57.9</v>
+        <v>68.8</v>
       </c>
       <c r="F351" s="4">
-        <v>56.7</v>
+        <v>67.3</v>
       </c>
       <c r="G351" s="4">
-        <v>57.7</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="H351" s="4">
-        <v>59.4</v>
+        <v>69.8</v>
       </c>
       <c r="I351" s="4">
-        <v>60.7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A352" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B352" s="4">
-        <v>70.2</v>
+        <v>56.3</v>
       </c>
       <c r="C352" s="4">
-        <v>69.5</v>
+        <v>57.2</v>
       </c>
       <c r="D352" s="4">
-        <v>66.900000000000006</v>
+        <v>57</v>
       </c>
       <c r="E352" s="4">
-        <v>68.8</v>
+        <v>58.7</v>
       </c>
       <c r="F352" s="4">
-        <v>67.3</v>
+        <v>59.7</v>
       </c>
       <c r="G352" s="4">
-        <v>69.599999999999994</v>
+        <v>60.6</v>
       </c>
       <c r="H352" s="4">
-        <v>69.8</v>
+        <v>62.3</v>
       </c>
       <c r="I352" s="4">
-        <v>71</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A353" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B353" s="4">
-        <v>56.3</v>
+        <v>54.7</v>
       </c>
       <c r="C353" s="4">
-        <v>57.2</v>
+        <v>55.2</v>
       </c>
       <c r="D353" s="4">
-        <v>57</v>
+        <v>54.8</v>
       </c>
       <c r="E353" s="4">
-        <v>58.7</v>
+        <v>55.4</v>
       </c>
       <c r="F353" s="4">
-        <v>59.7</v>
+        <v>53.8</v>
       </c>
       <c r="G353" s="4">
-        <v>60.6</v>
+        <v>55.2</v>
       </c>
       <c r="H353" s="4">
-        <v>62.3</v>
+        <v>57.1</v>
       </c>
       <c r="I353" s="4">
-        <v>63.6</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A354" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B354" s="4">
-        <v>54.7</v>
+        <v>51.7</v>
       </c>
       <c r="C354" s="4">
-        <v>55.2</v>
+        <v>52.1</v>
       </c>
       <c r="D354" s="4">
-        <v>54.8</v>
+        <v>52.9</v>
       </c>
       <c r="E354" s="4">
-        <v>55.4</v>
+        <v>54.4</v>
       </c>
       <c r="F354" s="4">
-        <v>53.8</v>
+        <v>51.1</v>
       </c>
       <c r="G354" s="4">
-        <v>55.2</v>
+        <v>51.5</v>
       </c>
       <c r="H354" s="4">
-        <v>57.1</v>
+        <v>53.7</v>
       </c>
       <c r="I354" s="4">
-        <v>57.7</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A355" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B355" s="4">
-        <v>51.7</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C355" s="4">
-        <v>52.1</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D355" s="4">
-        <v>52.9</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="E355" s="4">
-        <v>54.4</v>
+        <v>68.7</v>
       </c>
       <c r="F355" s="4">
-        <v>51.1</v>
+        <v>68.3</v>
       </c>
       <c r="G355" s="4">
-        <v>51.5</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="H355" s="4">
-        <v>53.7</v>
+        <v>69.3</v>
       </c>
       <c r="I355" s="4">
-        <v>55.5</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A356" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B356" s="4">
         <v>68.099999999999994</v>
@@ -11585,10 +11585,10 @@
         <v>69.099999999999994</v>
       </c>
       <c r="D356" s="4">
-        <v>69.099999999999994</v>
+        <v>69</v>
       </c>
       <c r="E356" s="4">
-        <v>68.7</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="F356" s="4">
         <v>68.3</v>
@@ -11605,28 +11605,28 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A357" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B357" s="4">
+        <v>67.2</v>
+      </c>
+      <c r="C357" s="4">
+        <v>68</v>
+      </c>
+      <c r="D357" s="4">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="E357" s="4">
+        <v>67.3</v>
+      </c>
+      <c r="F357" s="4">
+        <v>67.7</v>
+      </c>
+      <c r="G357" s="4">
+        <v>67</v>
+      </c>
+      <c r="H357" s="4">
         <v>68.099999999999994</v>
-      </c>
-      <c r="C357" s="4">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="D357" s="4">
-        <v>69</v>
-      </c>
-      <c r="E357" s="4">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="F357" s="4">
-        <v>68.3</v>
-      </c>
-      <c r="G357" s="4">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="H357" s="4">
-        <v>69.3</v>
       </c>
       <c r="I357" s="4">
         <v>70.3</v>
@@ -11634,36 +11634,26 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A358" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B358" s="4">
-        <v>67.2</v>
-      </c>
-      <c r="C358" s="4">
-        <v>68</v>
-      </c>
-      <c r="D358" s="4">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="E358" s="4">
-        <v>67.3</v>
-      </c>
-      <c r="F358" s="4">
-        <v>67.7</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B358" s="4"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="4"/>
+      <c r="F358" s="4"/>
       <c r="G358" s="4">
-        <v>67</v>
+        <v>74.3</v>
       </c>
       <c r="H358" s="4">
-        <v>68.099999999999994</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="I358" s="4">
-        <v>70.3</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A359" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -11671,18 +11661,18 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
       <c r="G359" s="4">
-        <v>74.3</v>
+        <v>68.3</v>
       </c>
       <c r="H359" s="4">
-        <v>75.099999999999994</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="I359" s="4">
-        <v>75.7</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A360" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -11690,32 +11680,42 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
       <c r="G360" s="4">
-        <v>68.3</v>
+        <v>62.8</v>
       </c>
       <c r="H360" s="4">
-        <v>69.099999999999994</v>
+        <v>63.7</v>
       </c>
       <c r="I360" s="4">
-        <v>69.900000000000006</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A361" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
-      <c r="D361" s="4"/>
-      <c r="E361" s="4"/>
-      <c r="F361" s="4"/>
+        <v>301</v>
+      </c>
+      <c r="B361" s="4">
+        <v>79</v>
+      </c>
+      <c r="C361" s="4">
+        <v>80.7</v>
+      </c>
+      <c r="D361" s="4">
+        <v>77.7</v>
+      </c>
+      <c r="E361" s="4">
+        <v>81.7</v>
+      </c>
+      <c r="F361" s="4">
+        <v>77</v>
+      </c>
       <c r="G361" s="4">
-        <v>62.8</v>
+        <v>77.2</v>
       </c>
       <c r="H361" s="4">
-        <v>63.7</v>
+        <v>77.2</v>
       </c>
       <c r="I361" s="4">
-        <v>63.9</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.45">
@@ -11749,384 +11749,384 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A363" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B363" s="4">
-        <v>79</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="C363" s="4">
-        <v>80.7</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="D363" s="4">
-        <v>77.7</v>
+        <v>74</v>
       </c>
       <c r="E363" s="4">
-        <v>81.7</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="F363" s="4">
-        <v>77</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="G363" s="4">
-        <v>77.2</v>
+        <v>72.5</v>
       </c>
       <c r="H363" s="4">
-        <v>77.2</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="I363" s="4">
-        <v>79.5</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A364" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B364" s="4">
-        <v>71.099999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="C364" s="4">
-        <v>74.400000000000006</v>
+        <v>76.5</v>
       </c>
       <c r="D364" s="4">
-        <v>74</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="E364" s="4">
+        <v>75.3</v>
+      </c>
+      <c r="F364" s="4">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="G364" s="4">
+        <v>73.3</v>
+      </c>
+      <c r="H364" s="4">
         <v>73.599999999999994</v>
       </c>
-      <c r="F364" s="4">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="G364" s="4">
-        <v>72.5</v>
-      </c>
-      <c r="H364" s="4">
-        <v>73.099999999999994</v>
-      </c>
       <c r="I364" s="4">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A365" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B365" s="4">
-        <v>75.2</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="C365" s="4">
-        <v>76.5</v>
+        <v>79.3</v>
       </c>
       <c r="D365" s="4">
-        <v>75.900000000000006</v>
+        <v>78.5</v>
       </c>
       <c r="E365" s="4">
-        <v>75.3</v>
+        <v>77.7</v>
       </c>
       <c r="F365" s="4">
-        <v>73.900000000000006</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="G365" s="4">
-        <v>73.3</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="H365" s="4">
-        <v>73.599999999999994</v>
+        <v>75.5</v>
       </c>
       <c r="I365" s="4">
-        <v>74.3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A366" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B366" s="4">
-        <v>77.900000000000006</v>
+        <v>71.8</v>
       </c>
       <c r="C366" s="4">
-        <v>79.3</v>
+        <v>73</v>
       </c>
       <c r="D366" s="4">
-        <v>78.5</v>
+        <v>72.7</v>
       </c>
       <c r="E366" s="4">
-        <v>77.7</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="F366" s="4">
-        <v>76.599999999999994</v>
+        <v>70.5</v>
       </c>
       <c r="G366" s="4">
-        <v>75.099999999999994</v>
+        <v>71</v>
       </c>
       <c r="H366" s="4">
-        <v>75.5</v>
+        <v>71.2</v>
       </c>
       <c r="I366" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A367" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B367" s="4">
-        <v>71.8</v>
+        <v>71.3</v>
       </c>
       <c r="C367" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D367" s="4">
-        <v>72.7</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="E367" s="4">
+        <v>74</v>
+      </c>
+      <c r="F367" s="4">
+        <v>72.8</v>
+      </c>
+      <c r="G367" s="4">
         <v>72.400000000000006</v>
       </c>
-      <c r="F367" s="4">
-        <v>70.5</v>
-      </c>
-      <c r="G367" s="4">
-        <v>71</v>
-      </c>
       <c r="H367" s="4">
-        <v>71.2</v>
+        <v>73.3</v>
       </c>
       <c r="I367" s="4">
-        <v>72</v>
+        <v>74.400000000000006</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A368" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B368" s="4">
-        <v>71.3</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C368" s="4">
-        <v>74</v>
+        <v>75.8</v>
       </c>
       <c r="D368" s="4">
-        <v>74.099999999999994</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="E368" s="4">
-        <v>74</v>
+        <v>75.5</v>
       </c>
       <c r="F368" s="4">
-        <v>72.8</v>
+        <v>74.7</v>
       </c>
       <c r="G368" s="4">
-        <v>72.400000000000006</v>
+        <v>75.2</v>
       </c>
       <c r="H368" s="4">
-        <v>73.3</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="I368" s="4">
-        <v>74.400000000000006</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A369" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B369" s="4">
-        <v>73.400000000000006</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C369" s="4">
-        <v>75.8</v>
+        <v>71.3</v>
       </c>
       <c r="D369" s="4">
-        <v>75.400000000000006</v>
+        <v>71.3</v>
       </c>
       <c r="E369" s="4">
-        <v>75.5</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="F369" s="4">
-        <v>74.7</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="G369" s="4">
-        <v>75.2</v>
+        <v>69.8</v>
       </c>
       <c r="H369" s="4">
-        <v>76.099999999999994</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="I369" s="4">
-        <v>77.2</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A370" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B370" s="4">
-        <v>68.099999999999994</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="C370" s="4">
-        <v>71.3</v>
+        <v>75.2</v>
       </c>
       <c r="D370" s="4">
-        <v>71.3</v>
+        <v>75.7</v>
       </c>
       <c r="E370" s="4">
-        <v>70.900000000000006</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="F370" s="4">
-        <v>69.099999999999994</v>
+        <v>74.8</v>
       </c>
       <c r="G370" s="4">
-        <v>69.8</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="H370" s="4">
-        <v>70.400000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="I370" s="4">
-        <v>72.3</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A371" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B371" s="4">
-        <v>72.599999999999994</v>
+        <v>69.5</v>
       </c>
       <c r="C371" s="4">
-        <v>75.2</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="D371" s="4">
-        <v>75.7</v>
+        <v>70</v>
       </c>
       <c r="E371" s="4">
-        <v>75.599999999999994</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="F371" s="4">
-        <v>74.8</v>
+        <v>68.7</v>
       </c>
       <c r="G371" s="4">
-        <v>73.099999999999994</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="H371" s="4">
-        <v>74.3</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="I371" s="4">
-        <v>74.7</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A372" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B372" s="4">
-        <v>69.5</v>
+        <v>70.2</v>
       </c>
       <c r="C372" s="4">
-        <v>71.099999999999994</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="D372" s="4">
-        <v>70</v>
+        <v>70.8</v>
       </c>
       <c r="E372" s="4">
-        <v>69.099999999999994</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="F372" s="4">
-        <v>68.7</v>
+        <v>69</v>
       </c>
       <c r="G372" s="4">
-        <v>70.900000000000006</v>
+        <v>70.3</v>
       </c>
       <c r="H372" s="4">
-        <v>71.599999999999994</v>
+        <v>70.8</v>
       </c>
       <c r="I372" s="4">
-        <v>73.599999999999994</v>
+        <v>73</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A373" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B373" s="4">
-        <v>70.2</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="C373" s="4">
-        <v>71.400000000000006</v>
+        <v>70.5</v>
       </c>
       <c r="D373" s="4">
-        <v>70.8</v>
+        <v>69.8</v>
       </c>
       <c r="E373" s="4">
-        <v>69.900000000000006</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F373" s="4">
-        <v>69</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="G373" s="4">
-        <v>70.3</v>
+        <v>72.3</v>
       </c>
       <c r="H373" s="4">
-        <v>70.8</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="I373" s="4">
-        <v>73</v>
+        <v>74.900000000000006</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A374" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B374" s="4">
-        <v>69.900000000000006</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C374" s="4">
-        <v>70.5</v>
+        <v>71</v>
       </c>
       <c r="D374" s="4">
-        <v>69.8</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="E374" s="4">
-        <v>68.400000000000006</v>
+        <v>68.5</v>
       </c>
       <c r="F374" s="4">
-        <v>68.099999999999994</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="G374" s="4">
-        <v>72.3</v>
+        <v>70.8</v>
       </c>
       <c r="H374" s="4">
-        <v>73.099999999999994</v>
+        <v>72</v>
       </c>
       <c r="I374" s="4">
-        <v>74.900000000000006</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A375" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B375" s="4">
-        <v>68.099999999999994</v>
+        <v>87.1</v>
       </c>
       <c r="C375" s="4">
-        <v>71</v>
+        <v>86.9</v>
       </c>
       <c r="D375" s="4">
-        <v>69.099999999999994</v>
+        <v>85</v>
       </c>
       <c r="E375" s="4">
-        <v>68.5</v>
+        <v>84.3</v>
       </c>
       <c r="F375" s="4">
-        <v>68.599999999999994</v>
+        <v>83.2</v>
       </c>
       <c r="G375" s="4">
-        <v>70.8</v>
+        <v>83.8</v>
       </c>
       <c r="H375" s="4">
-        <v>72</v>
+        <v>84.6</v>
       </c>
       <c r="I375" s="4">
-        <v>73.7</v>
+        <v>85.1</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A376" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B376" s="4">
         <v>87.1</v>
@@ -12184,36 +12184,36 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A378" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B378" s="4">
-        <v>87.1</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="C378" s="4">
-        <v>86.9</v>
+        <v>77.5</v>
       </c>
       <c r="D378" s="4">
-        <v>85</v>
+        <v>77.3</v>
       </c>
       <c r="E378" s="4">
-        <v>84.3</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="F378" s="4">
-        <v>83.2</v>
+        <v>75.3</v>
       </c>
       <c r="G378" s="4">
-        <v>83.8</v>
+        <v>74.8</v>
       </c>
       <c r="H378" s="4">
-        <v>84.6</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="I378" s="4">
-        <v>85.1</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A379" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B379" s="4">
         <v>77.900000000000006</v>
@@ -12242,86 +12242,86 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A380" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B380" s="4">
-        <v>77.900000000000006</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="C380" s="4">
-        <v>77.5</v>
+        <v>80.5</v>
       </c>
       <c r="D380" s="4">
-        <v>77.3</v>
+        <v>79.2</v>
       </c>
       <c r="E380" s="4">
-        <v>75.599999999999994</v>
+        <v>77.2</v>
       </c>
       <c r="F380" s="4">
-        <v>75.3</v>
+        <v>77</v>
       </c>
       <c r="G380" s="4">
-        <v>74.8</v>
+        <v>76</v>
       </c>
       <c r="H380" s="4">
-        <v>75.400000000000006</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="I380" s="4">
-        <v>76.8</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A381" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B381" s="4">
-        <v>80.900000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="C381" s="4">
-        <v>80.5</v>
+        <v>78.5</v>
       </c>
       <c r="D381" s="4">
-        <v>79.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E381" s="4">
-        <v>77.2</v>
+        <v>74.2</v>
       </c>
       <c r="F381" s="4">
-        <v>77</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="G381" s="4">
-        <v>76</v>
+        <v>73.8</v>
       </c>
       <c r="H381" s="4">
-        <v>76.900000000000006</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="I381" s="4">
-        <v>78.8</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A382" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B382" s="4">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="C382" s="4">
-        <v>78.5</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="D382" s="4">
-        <v>76.400000000000006</v>
+        <v>77</v>
       </c>
       <c r="E382" s="4">
-        <v>74.2</v>
+        <v>75.3</v>
       </c>
       <c r="F382" s="4">
-        <v>74.599999999999994</v>
+        <v>73.5</v>
       </c>
       <c r="G382" s="4">
-        <v>73.8</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="H382" s="4">
-        <v>73.099999999999994</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="I382" s="4">
         <v>74.5</v>
@@ -12329,152 +12329,152 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A383" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B383" s="4">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="C383" s="4">
-        <v>76.599999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="D383" s="4">
-        <v>77</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="E383" s="4">
-        <v>75.3</v>
+        <v>74.7</v>
       </c>
       <c r="F383" s="4">
-        <v>73.5</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="G383" s="4">
-        <v>74.099999999999994</v>
+        <v>74.8</v>
       </c>
       <c r="H383" s="4">
-        <v>73.400000000000006</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="I383" s="4">
-        <v>74.5</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A384" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B384" s="4">
-        <v>76.5</v>
+        <v>79.3</v>
       </c>
       <c r="C384" s="4">
-        <v>75.2</v>
+        <v>76.8</v>
       </c>
       <c r="D384" s="4">
-        <v>75.900000000000006</v>
+        <v>78</v>
       </c>
       <c r="E384" s="4">
-        <v>74.7</v>
+        <v>76.7</v>
       </c>
       <c r="F384" s="4">
-        <v>73.900000000000006</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="G384" s="4">
-        <v>74.8</v>
+        <v>75.7</v>
       </c>
       <c r="H384" s="4">
-        <v>75.599999999999994</v>
+        <v>77.7</v>
       </c>
       <c r="I384" s="4">
-        <v>77.599999999999994</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A385" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B385" s="4">
-        <v>79.3</v>
+        <v>75.8</v>
       </c>
       <c r="C385" s="4">
-        <v>76.8</v>
+        <v>77.2</v>
       </c>
       <c r="D385" s="4">
-        <v>78</v>
+        <v>76.5</v>
       </c>
       <c r="E385" s="4">
-        <v>76.7</v>
+        <v>74</v>
       </c>
       <c r="F385" s="4">
-        <v>76.900000000000006</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="G385" s="4">
-        <v>75.7</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="H385" s="4">
-        <v>77.7</v>
+        <v>74.5</v>
       </c>
       <c r="I385" s="4">
-        <v>78.7</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A386" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B386" s="4">
-        <v>75.8</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="C386" s="4">
-        <v>77.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="D386" s="4">
-        <v>76.5</v>
+        <v>76</v>
       </c>
       <c r="E386" s="4">
         <v>74</v>
       </c>
       <c r="F386" s="4">
-        <v>74.900000000000006</v>
+        <v>74.8</v>
       </c>
       <c r="G386" s="4">
-        <v>74.099999999999994</v>
+        <v>73.5</v>
       </c>
       <c r="H386" s="4">
-        <v>74.5</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="I386" s="4">
-        <v>76.5</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A387" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B387" s="4">
-        <v>75.099999999999994</v>
+        <v>78.3</v>
       </c>
       <c r="C387" s="4">
-        <v>76.400000000000006</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="D387" s="4">
-        <v>76</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="E387" s="4">
-        <v>74</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="F387" s="4">
-        <v>74.8</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="G387" s="4">
-        <v>73.5</v>
+        <v>77.2</v>
       </c>
       <c r="H387" s="4">
-        <v>73.599999999999994</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="I387" s="4">
-        <v>74.2</v>
+        <v>78.599999999999994</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A388" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B388" s="4">
         <v>78.3</v>
@@ -12503,457 +12503,447 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A389" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B389" s="4">
-        <v>78.3</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B389" s="4"/>
       <c r="C389" s="4">
-        <v>79.099999999999994</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="D389" s="4">
-        <v>78.900000000000006</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="E389" s="4">
-        <v>77.900000000000006</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="F389" s="4">
-        <v>77.400000000000006</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="G389" s="4">
-        <v>77.2</v>
+        <v>72.8</v>
       </c>
       <c r="H389" s="4">
-        <v>77.900000000000006</v>
+        <v>74.2</v>
       </c>
       <c r="I389" s="4">
-        <v>78.599999999999994</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A390" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4">
-        <v>76.400000000000006</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="D390" s="4">
-        <v>75.900000000000006</v>
+        <v>80.3</v>
       </c>
       <c r="E390" s="4">
-        <v>74.099999999999994</v>
+        <v>79.8</v>
       </c>
       <c r="F390" s="4">
-        <v>73.099999999999994</v>
+        <v>79</v>
       </c>
       <c r="G390" s="4">
-        <v>72.8</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="H390" s="4">
-        <v>74.2</v>
+        <v>79.2</v>
       </c>
       <c r="I390" s="4">
-        <v>75.400000000000006</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A391" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B391" s="4"/>
       <c r="C391" s="4">
-        <v>80.099999999999994</v>
+        <v>79.2</v>
       </c>
       <c r="D391" s="4">
-        <v>80.3</v>
+        <v>78.3</v>
       </c>
       <c r="E391" s="4">
-        <v>79.8</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="F391" s="4">
-        <v>79</v>
+        <v>77.2</v>
       </c>
       <c r="G391" s="4">
-        <v>78.599999999999994</v>
+        <v>77.2</v>
       </c>
       <c r="H391" s="4">
-        <v>79.2</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="I391" s="4">
-        <v>78.5</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A392" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4">
-        <v>79.2</v>
+        <v>81</v>
       </c>
       <c r="D392" s="4">
-        <v>78.3</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E392" s="4">
-        <v>77.900000000000006</v>
+        <v>79.8</v>
       </c>
       <c r="F392" s="4">
-        <v>77.2</v>
+        <v>79.3</v>
       </c>
       <c r="G392" s="4">
-        <v>77.2</v>
+        <v>79</v>
       </c>
       <c r="H392" s="4">
-        <v>77.400000000000006</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="I392" s="4">
-        <v>79.3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A393" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D393" s="4">
-        <v>79.900000000000006</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="E393" s="4">
-        <v>79.8</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="F393" s="4">
-        <v>79.3</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="G393" s="4">
         <v>79</v>
       </c>
       <c r="H393" s="4">
-        <v>80.599999999999994</v>
+        <v>78.8</v>
       </c>
       <c r="I393" s="4">
-        <v>81</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A394" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B394" s="4"/>
       <c r="C394" s="4">
-        <v>79</v>
+        <v>81.8</v>
       </c>
       <c r="D394" s="4">
-        <v>80.400000000000006</v>
+        <v>81.3</v>
       </c>
       <c r="E394" s="4">
         <v>79.099999999999994</v>
       </c>
       <c r="F394" s="4">
-        <v>79.400000000000006</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="G394" s="4">
-        <v>79</v>
+        <v>80.5</v>
       </c>
       <c r="H394" s="4">
-        <v>78.8</v>
+        <v>80.2</v>
       </c>
       <c r="I394" s="4">
-        <v>80.2</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A395" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4">
-        <v>81.8</v>
+        <v>72.7</v>
       </c>
       <c r="D395" s="4">
-        <v>81.3</v>
+        <v>70.8</v>
       </c>
       <c r="E395" s="4">
-        <v>79.099999999999994</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F395" s="4">
-        <v>79.599999999999994</v>
+        <v>69</v>
       </c>
       <c r="G395" s="4">
-        <v>80.5</v>
+        <v>68.2</v>
       </c>
       <c r="H395" s="4">
-        <v>80.2</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="I395" s="4">
-        <v>81.2</v>
+        <v>69.400000000000006</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A396" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B396" s="4"/>
+        <v>334</v>
+      </c>
+      <c r="B396" s="4">
+        <v>71</v>
+      </c>
       <c r="C396" s="4">
-        <v>72.7</v>
+        <v>71.3</v>
       </c>
       <c r="D396" s="4">
-        <v>70.8</v>
+        <v>71.2</v>
       </c>
       <c r="E396" s="4">
-        <v>70.400000000000006</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="F396" s="4">
-        <v>69</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G396" s="4">
-        <v>68.2</v>
+        <v>71.8</v>
       </c>
       <c r="H396" s="4">
-        <v>70.099999999999994</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="I396" s="4">
-        <v>69.400000000000006</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A397" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B397" s="4">
-        <v>71</v>
+        <v>63.7</v>
       </c>
       <c r="C397" s="4">
-        <v>71.3</v>
+        <v>64.8</v>
       </c>
       <c r="D397" s="4">
-        <v>71.2</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="E397" s="4">
-        <v>71.400000000000006</v>
+        <v>64.8</v>
       </c>
       <c r="F397" s="4">
-        <v>71.599999999999994</v>
+        <v>65.8</v>
       </c>
       <c r="G397" s="4">
-        <v>71.8</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="H397" s="4">
-        <v>71.599999999999994</v>
+        <v>68</v>
       </c>
       <c r="I397" s="4">
-        <v>71.5</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A398" s="3" t="s">
-        <v>335</v>
+      <c r="A398" t="s">
+        <v>473</v>
       </c>
       <c r="B398" s="4">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="C398" s="4">
+        <v>64.5</v>
+      </c>
+      <c r="D398" s="4">
         <v>63.7</v>
       </c>
-      <c r="C398" s="4">
-        <v>64.8</v>
-      </c>
-      <c r="D398" s="4">
-        <v>65.099999999999994</v>
-      </c>
       <c r="E398" s="4">
-        <v>64.8</v>
+        <v>61.9</v>
       </c>
       <c r="F398" s="4">
-        <v>65.8</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="G398" s="4">
-        <v>67.099999999999994</v>
+        <v>66.8</v>
       </c>
       <c r="H398" s="4">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="I398" s="4">
-        <v>68.2</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B399" s="4">
-        <v>64.599999999999994</v>
+        <v>63</v>
       </c>
       <c r="C399" s="4">
-        <v>64.5</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="D399" s="4">
-        <v>63.7</v>
+        <v>66.2</v>
       </c>
       <c r="E399" s="4">
-        <v>61.9</v>
+        <v>67</v>
       </c>
       <c r="F399" s="4">
-        <v>65.900000000000006</v>
+        <v>65.7</v>
       </c>
       <c r="G399" s="4">
-        <v>66.8</v>
+        <v>67.3</v>
       </c>
       <c r="H399" s="4">
-        <v>67.8</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="I399" s="4">
-        <v>68.099999999999994</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A400" t="s">
-        <v>474</v>
+      <c r="A400" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="B400" s="4">
-        <v>63</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="C400" s="4">
-        <v>65.099999999999994</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="D400" s="4">
-        <v>66.2</v>
+        <v>68.8</v>
       </c>
       <c r="E400" s="4">
-        <v>67</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="F400" s="4">
-        <v>65.7</v>
+        <v>69.8</v>
       </c>
       <c r="G400" s="4">
-        <v>67.3</v>
+        <v>70.2</v>
       </c>
       <c r="H400" s="4">
-        <v>68.099999999999994</v>
+        <v>70.2</v>
       </c>
       <c r="I400" s="4">
-        <v>68.2</v>
+        <v>69.400000000000006</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A401" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B401" s="4">
-        <v>69.099999999999994</v>
+        <v>68.8</v>
       </c>
       <c r="C401" s="4">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D401" s="4">
         <v>69.400000000000006</v>
       </c>
-      <c r="D401" s="4">
-        <v>68.8</v>
-      </c>
       <c r="E401" s="4">
-        <v>69.900000000000006</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F401" s="4">
-        <v>69.8</v>
+        <v>74.2</v>
       </c>
       <c r="G401" s="4">
-        <v>70.2</v>
+        <v>76.8</v>
       </c>
       <c r="H401" s="4">
-        <v>70.2</v>
+        <v>72.5</v>
       </c>
       <c r="I401" s="4">
-        <v>69.400000000000006</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A402" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B402" s="4">
-        <v>68.8</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="C402" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="D402" s="4">
+        <v>69.2</v>
+      </c>
+      <c r="E402" s="4">
         <v>68.400000000000006</v>
       </c>
-      <c r="D402" s="4">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="E402" s="4">
-        <v>70.400000000000006</v>
-      </c>
       <c r="F402" s="4">
-        <v>74.2</v>
+        <v>69</v>
       </c>
       <c r="G402" s="4">
-        <v>76.8</v>
+        <v>69.7</v>
       </c>
       <c r="H402" s="4">
-        <v>72.5</v>
+        <v>70.5</v>
       </c>
       <c r="I402" s="4">
-        <v>74.3</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A403" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B403" s="4">
-        <v>69.900000000000006</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="C403" s="4">
-        <v>70.5</v>
+        <v>72.2</v>
       </c>
       <c r="D403" s="4">
-        <v>69.2</v>
+        <v>71.2</v>
       </c>
       <c r="E403" s="4">
-        <v>68.400000000000006</v>
+        <v>73.2</v>
       </c>
       <c r="F403" s="4">
-        <v>69</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="G403" s="4">
-        <v>69.7</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="H403" s="4">
-        <v>70.5</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="I403" s="4">
-        <v>68.900000000000006</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A404" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B404" s="4">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="C404" s="4">
-        <v>72.2</v>
-      </c>
-      <c r="D404" s="4">
-        <v>71.2</v>
-      </c>
-      <c r="E404" s="4">
-        <v>73.2</v>
-      </c>
-      <c r="F404" s="4">
-        <v>71.400000000000006</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B404" s="4"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+      <c r="E404" s="4"/>
+      <c r="F404" s="4"/>
       <c r="G404" s="4">
-        <v>70.599999999999994</v>
+        <v>74.2</v>
       </c>
       <c r="H404" s="4">
-        <v>69.400000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="I404" s="4">
-        <v>70.599999999999994</v>
+        <v>74.900000000000006</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A405" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -12961,617 +12951,611 @@
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4">
-        <v>74.2</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="H405" s="4">
-        <v>76.3</v>
+        <v>65.8</v>
       </c>
       <c r="I405" s="4">
-        <v>74.900000000000006</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A406" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B406" s="4"/>
-      <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
-      <c r="E406" s="4"/>
-      <c r="F406" s="4"/>
+        <v>342</v>
+      </c>
+      <c r="B406" s="4">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C406" s="4">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="D406" s="4">
+        <v>69.3</v>
+      </c>
+      <c r="E406" s="4">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F406" s="4">
+        <v>71.2</v>
+      </c>
       <c r="G406" s="4">
-        <v>66.400000000000006</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="H406" s="4">
-        <v>65.8</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="I406" s="4">
-        <v>64.3</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A407" s="3" t="s">
-        <v>342</v>
+      <c r="A407" t="s">
+        <v>475</v>
       </c>
       <c r="B407" s="4">
-        <v>69.900000000000006</v>
+        <v>69.2</v>
       </c>
       <c r="C407" s="4">
-        <v>69.900000000000006</v>
+        <v>67.2</v>
       </c>
       <c r="D407" s="4">
-        <v>69.3</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="E407" s="4">
-        <v>70.400000000000006</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="F407" s="4">
-        <v>71.2</v>
+        <v>72.2</v>
       </c>
       <c r="G407" s="4">
-        <v>71.099999999999994</v>
+        <v>68.2</v>
       </c>
       <c r="H407" s="4">
-        <v>70.900000000000006</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="I407" s="4">
-        <v>70.2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A408" t="s">
-        <v>475</v>
+      <c r="A408" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="B408" s="4">
-        <v>69.2</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C408" s="4">
-        <v>67.2</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="D408" s="4">
-        <v>67.599999999999994</v>
+        <v>74.8</v>
       </c>
       <c r="E408" s="4">
-        <v>68.900000000000006</v>
+        <v>76.5</v>
       </c>
       <c r="F408" s="4">
-        <v>72.2</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="G408" s="4">
-        <v>68.2</v>
+        <v>76.5</v>
       </c>
       <c r="H408" s="4">
-        <v>70.599999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="I408" s="4">
-        <v>72</v>
+        <v>74.099999999999994</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A409" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B409" s="4">
-        <v>75.400000000000006</v>
+        <v>65.2</v>
       </c>
       <c r="C409" s="4">
-        <v>76.599999999999994</v>
+        <v>66.7</v>
       </c>
       <c r="D409" s="4">
-        <v>74.8</v>
+        <v>66.5</v>
       </c>
       <c r="E409" s="4">
-        <v>76.5</v>
+        <v>68</v>
       </c>
       <c r="F409" s="4">
-        <v>77.099999999999994</v>
+        <v>68</v>
       </c>
       <c r="G409" s="4">
-        <v>76.5</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="H409" s="4">
-        <v>76.2</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="I409" s="4">
-        <v>74.099999999999994</v>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A410" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B410" s="4">
-        <v>65.2</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="C410" s="4">
-        <v>66.7</v>
+        <v>70.7</v>
       </c>
       <c r="D410" s="4">
-        <v>66.5</v>
+        <v>69.8</v>
       </c>
       <c r="E410" s="4">
-        <v>68</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F410" s="4">
-        <v>68</v>
+        <v>70.7</v>
       </c>
       <c r="G410" s="4">
-        <v>68.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="H410" s="4">
-        <v>66.599999999999994</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="I410" s="4">
-        <v>66.900000000000006</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A411" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B411" s="4">
-        <v>71.099999999999994</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="C411" s="4">
-        <v>70.7</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="D411" s="4">
-        <v>69.8</v>
+        <v>73.3</v>
       </c>
       <c r="E411" s="4">
+        <v>72.5</v>
+      </c>
+      <c r="F411" s="4">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="G411" s="4">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H411" s="4">
+        <v>73.8</v>
+      </c>
+      <c r="I411" s="4">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A412" t="s">
+        <v>476</v>
+      </c>
+      <c r="B412" s="4">
+        <v>71</v>
+      </c>
+      <c r="C412" s="4">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D412" s="4">
+        <v>71.5</v>
+      </c>
+      <c r="E412" s="4">
         <v>70.400000000000006</v>
       </c>
-      <c r="F411" s="4">
-        <v>70.7</v>
-      </c>
-      <c r="G411" s="4">
-        <v>72</v>
-      </c>
-      <c r="H411" s="4">
+      <c r="F412" s="4">
+        <v>71</v>
+      </c>
+      <c r="G412" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H412" s="4">
         <v>71.900000000000006</v>
       </c>
-      <c r="I411" s="4">
+      <c r="I412" s="4">
         <v>70.099999999999994</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A412" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B412" s="4">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="C412" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="D412" s="4">
-        <v>73.3</v>
-      </c>
-      <c r="E412" s="4">
-        <v>72.5</v>
-      </c>
-      <c r="F412" s="4">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="G412" s="4">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="H412" s="4">
-        <v>73.8</v>
-      </c>
-      <c r="I412" s="4">
-        <v>72.2</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B413" s="4">
-        <v>71</v>
+        <v>75.3</v>
       </c>
       <c r="C413" s="4">
-        <v>69.400000000000006</v>
+        <v>75.7</v>
       </c>
       <c r="D413" s="4">
-        <v>71.5</v>
+        <v>76.2</v>
       </c>
       <c r="E413" s="4">
-        <v>70.400000000000006</v>
+        <v>75</v>
       </c>
       <c r="F413" s="4">
-        <v>71</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="G413" s="4">
-        <v>72.599999999999994</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="H413" s="4">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="I413" s="4">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A414" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B414" s="4">
+        <v>74.2</v>
+      </c>
+      <c r="C414" s="4">
+        <v>71.8</v>
+      </c>
+      <c r="D414" s="4">
         <v>71.900000000000006</v>
       </c>
-      <c r="I413" s="4">
-        <v>70.099999999999994</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A414" t="s">
-        <v>477</v>
-      </c>
-      <c r="B414" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="C414" s="4">
-        <v>75.7</v>
-      </c>
-      <c r="D414" s="4">
-        <v>76.2</v>
-      </c>
       <c r="E414" s="4">
-        <v>75</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F414" s="4">
-        <v>75.900000000000006</v>
+        <v>74.7</v>
       </c>
       <c r="G414" s="4">
-        <v>74.900000000000006</v>
+        <v>73.3</v>
       </c>
       <c r="H414" s="4">
-        <v>76.400000000000006</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="I414" s="4">
-        <v>74.8</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A415" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B415" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="C415" s="4">
+        <v>70.7</v>
+      </c>
+      <c r="D415" s="4">
+        <v>70.8</v>
+      </c>
+      <c r="E415" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="F415" s="4">
+        <v>70.7</v>
+      </c>
+      <c r="G415" s="4">
+        <v>71.2</v>
+      </c>
+      <c r="H415" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="I415" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A416" t="s">
+        <v>478</v>
+      </c>
+      <c r="B416" s="4">
+        <v>75</v>
+      </c>
+      <c r="C416" s="4">
+        <v>76.7</v>
+      </c>
+      <c r="D416" s="4">
+        <v>76.2</v>
+      </c>
+      <c r="E416" s="4">
+        <v>75.2</v>
+      </c>
+      <c r="F416" s="4">
         <v>74.2</v>
       </c>
-      <c r="C415" s="4">
-        <v>71.8</v>
-      </c>
-      <c r="D415" s="4">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="E415" s="4">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="F415" s="4">
-        <v>74.7</v>
-      </c>
-      <c r="G415" s="4">
-        <v>73.3</v>
-      </c>
-      <c r="H415" s="4">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="I415" s="4">
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A416" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B416" s="4">
-        <v>69.8</v>
-      </c>
-      <c r="C416" s="4">
-        <v>70.7</v>
-      </c>
-      <c r="D416" s="4">
-        <v>70.8</v>
-      </c>
-      <c r="E416" s="4">
-        <v>70.5</v>
-      </c>
-      <c r="F416" s="4">
-        <v>70.7</v>
-      </c>
       <c r="G416" s="4">
-        <v>71.2</v>
+        <v>76.7</v>
       </c>
       <c r="H416" s="4">
-        <v>70.5</v>
+        <v>76.2</v>
       </c>
       <c r="I416" s="4">
-        <v>69.900000000000006</v>
+        <v>76</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B417" s="4">
-        <v>75</v>
+        <v>72.8</v>
       </c>
       <c r="C417" s="4">
-        <v>76.7</v>
+        <v>73.3</v>
       </c>
       <c r="D417" s="4">
-        <v>76.2</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E417" s="4">
-        <v>75.2</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="F417" s="4">
-        <v>74.2</v>
+        <v>73.5</v>
       </c>
       <c r="G417" s="4">
-        <v>76.7</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="H417" s="4">
-        <v>76.2</v>
+        <v>73.3</v>
       </c>
       <c r="I417" s="4">
-        <v>76</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A418" t="s">
-        <v>479</v>
+      <c r="A418" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="B418" s="4">
-        <v>72.8</v>
+        <v>65.5</v>
       </c>
       <c r="C418" s="4">
-        <v>73.3</v>
+        <v>66.2</v>
       </c>
       <c r="D418" s="4">
-        <v>72.900000000000006</v>
+        <v>66.8</v>
       </c>
       <c r="E418" s="4">
-        <v>74.900000000000006</v>
+        <v>65.7</v>
       </c>
       <c r="F418" s="4">
-        <v>73.5</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="G418" s="4">
-        <v>73.599999999999994</v>
+        <v>67.2</v>
       </c>
       <c r="H418" s="4">
-        <v>73.3</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="I418" s="4">
-        <v>72.3</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A419" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B419" s="4">
-        <v>65.5</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="C419" s="4">
-        <v>66.2</v>
+        <v>76.5</v>
       </c>
       <c r="D419" s="4">
-        <v>66.8</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="E419" s="4">
-        <v>65.7</v>
+        <v>75.5</v>
       </c>
       <c r="F419" s="4">
-        <v>67.400000000000006</v>
+        <v>76</v>
       </c>
       <c r="G419" s="4">
-        <v>67.2</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="H419" s="4">
-        <v>66.099999999999994</v>
+        <v>74</v>
       </c>
       <c r="I419" s="4">
-        <v>65.599999999999994</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A420" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B420" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="C420" s="4">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D420" s="4">
+        <v>75.7</v>
+      </c>
+      <c r="E420" s="4">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F420" s="4">
+        <v>75.7</v>
+      </c>
+      <c r="G420" s="4">
         <v>75.099999999999994</v>
       </c>
-      <c r="C420" s="4">
-        <v>76.5</v>
-      </c>
-      <c r="D420" s="4">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="E420" s="4">
-        <v>75.5</v>
-      </c>
-      <c r="F420" s="4">
-        <v>76</v>
-      </c>
-      <c r="G420" s="4">
-        <v>75.400000000000006</v>
-      </c>
       <c r="H420" s="4">
-        <v>74</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="I420" s="4">
-        <v>74.2</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A421" s="3" t="s">
-        <v>351</v>
+        <v>480</v>
       </c>
       <c r="B421" s="4">
-        <v>74.8</v>
+        <v>78.2</v>
       </c>
       <c r="C421" s="4">
-        <v>77.400000000000006</v>
+        <v>76.5</v>
       </c>
       <c r="D421" s="4">
-        <v>75.7</v>
+        <v>77.7</v>
       </c>
       <c r="E421" s="4">
-        <v>75.599999999999994</v>
+        <v>77.3</v>
       </c>
       <c r="F421" s="4">
-        <v>75.7</v>
+        <v>78.3</v>
       </c>
       <c r="G421" s="4">
-        <v>75.099999999999994</v>
+        <v>76.3</v>
       </c>
       <c r="H421" s="4">
-        <v>74.400000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="I421" s="4">
-        <v>74.7</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A422" s="3" t="s">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="B422" s="4">
-        <v>78.2</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C422" s="4">
-        <v>76.5</v>
+        <v>75.5</v>
       </c>
       <c r="D422" s="4">
-        <v>77.7</v>
+        <v>74.3</v>
       </c>
       <c r="E422" s="4">
-        <v>77.3</v>
+        <v>73.5</v>
       </c>
       <c r="F422" s="4">
-        <v>78.3</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="G422" s="4">
-        <v>76.3</v>
+        <v>75</v>
       </c>
       <c r="H422" s="4">
+        <v>73.3</v>
+      </c>
+      <c r="I422" s="4">
         <v>74.3</v>
-      </c>
-      <c r="I422" s="4">
-        <v>73.5</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A423" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B423" s="4">
-        <v>72.400000000000006</v>
+        <v>69</v>
       </c>
       <c r="C423" s="4">
-        <v>75.5</v>
+        <v>69</v>
       </c>
       <c r="D423" s="4">
-        <v>74.3</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="E423" s="4">
-        <v>73.5</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="F423" s="4">
-        <v>73.900000000000006</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="G423" s="4">
-        <v>75</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="H423" s="4">
-        <v>73.3</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="I423" s="4">
-        <v>74.3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A424" s="3" t="s">
-        <v>353</v>
+        <v>481</v>
       </c>
       <c r="B424" s="4">
-        <v>69</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="C424" s="4">
-        <v>69</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="D424" s="4">
-        <v>68.900000000000006</v>
+        <v>64.3</v>
       </c>
       <c r="E424" s="4">
-        <v>67.900000000000006</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="F424" s="4">
-        <v>68.400000000000006</v>
+        <v>63.8</v>
       </c>
       <c r="G424" s="4">
-        <v>67.400000000000006</v>
+        <v>63.2</v>
       </c>
       <c r="H424" s="4">
-        <v>67.599999999999994</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="I424" s="4">
-        <v>68</v>
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A425" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B425" s="4">
-        <v>64.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="C425" s="4">
-        <v>65.099999999999994</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="D425" s="4">
-        <v>64.3</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="E425" s="4">
-        <v>64.900000000000006</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="F425" s="4">
-        <v>63.8</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G425" s="4">
-        <v>63.2</v>
+        <v>70.3</v>
       </c>
       <c r="H425" s="4">
-        <v>64.400000000000006</v>
+        <v>69.8</v>
       </c>
       <c r="I425" s="4">
-        <v>65.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A426" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B426" s="4">
-        <v>72</v>
-      </c>
-      <c r="C426" s="4">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="D426" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="E426" s="4">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="F426" s="4">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="G426" s="4">
-        <v>70.3</v>
-      </c>
-      <c r="H426" s="4">
-        <v>69.8</v>
-      </c>
-      <c r="I426" s="4">
-        <v>70.099999999999994</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B426" s="4"/>
+      <c r="C426" s="4"/>
+      <c r="D426" s="4"/>
+      <c r="E426" s="4"/>
+      <c r="F426" s="4"/>
+      <c r="G426" s="4"/>
+      <c r="H426" s="4"/>
+      <c r="I426" s="4"/>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A427" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -13584,7 +13568,7 @@
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A428" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -13597,7 +13581,7 @@
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A429" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -13610,7 +13594,7 @@
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A430" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -13623,542 +13607,542 @@
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A431" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B431" s="4"/>
-      <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
-      <c r="E431" s="4"/>
-      <c r="F431" s="4"/>
-      <c r="G431" s="4"/>
-      <c r="H431" s="4"/>
-      <c r="I431" s="4"/>
+        <v>359</v>
+      </c>
+      <c r="B431" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="C431" s="4">
+        <v>77.2</v>
+      </c>
+      <c r="D431" s="4">
+        <v>76.8</v>
+      </c>
+      <c r="E431" s="4">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F431" s="4">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="G431" s="4">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="H431" s="4">
+        <v>76</v>
+      </c>
+      <c r="I431" s="4">
+        <v>75.8</v>
+      </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A432" s="3" t="s">
-        <v>359</v>
+      <c r="A432" t="s">
+        <v>483</v>
       </c>
       <c r="B432" s="4">
-        <v>77.5</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="C432" s="4">
-        <v>77.2</v>
+        <v>79.8</v>
       </c>
       <c r="D432" s="4">
-        <v>76.8</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="E432" s="4">
-        <v>76.400000000000006</v>
+        <v>78.5</v>
       </c>
       <c r="F432" s="4">
-        <v>75.400000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="G432" s="4">
-        <v>75.900000000000006</v>
+        <v>78.2</v>
       </c>
       <c r="H432" s="4">
-        <v>76</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="I432" s="4">
-        <v>75.8</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B433" s="4">
-        <v>80.400000000000006</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C433" s="4">
-        <v>79.8</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="D433" s="4">
-        <v>79.599999999999994</v>
+        <v>76</v>
       </c>
       <c r="E433" s="4">
-        <v>78.5</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F433" s="4">
         <v>76.3</v>
       </c>
       <c r="G433" s="4">
-        <v>78.2</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="H433" s="4">
-        <v>78.900000000000006</v>
+        <v>75.7</v>
       </c>
       <c r="I433" s="4">
-        <v>77.599999999999994</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B434" s="4">
-        <v>77.599999999999994</v>
+        <v>76.5</v>
       </c>
       <c r="C434" s="4">
-        <v>76.900000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="D434" s="4">
-        <v>76</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E434" s="4">
-        <v>77.099999999999994</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="F434" s="4">
-        <v>76.3</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="G434" s="4">
-        <v>75.599999999999994</v>
+        <v>75</v>
       </c>
       <c r="H434" s="4">
-        <v>75.7</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="I434" s="4">
-        <v>76.099999999999994</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A435" t="s">
-        <v>485</v>
+      <c r="A435" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="B435" s="4">
-        <v>76.5</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="C435" s="4">
-        <v>76.3</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="D435" s="4">
-        <v>78.099999999999994</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E435" s="4">
-        <v>76.599999999999994</v>
+        <v>71.7</v>
       </c>
       <c r="F435" s="4">
-        <v>76.099999999999994</v>
+        <v>72</v>
       </c>
       <c r="G435" s="4">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="H435" s="4">
-        <v>75.900000000000006</v>
+        <v>72.3</v>
       </c>
       <c r="I435" s="4">
-        <v>75.400000000000006</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A436" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B436" s="4">
-        <v>74.099999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="C436" s="4">
+        <v>75.3</v>
+      </c>
+      <c r="D436" s="4">
+        <v>75.8</v>
+      </c>
+      <c r="E436" s="4">
         <v>74.900000000000006</v>
       </c>
-      <c r="D436" s="4">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="E436" s="4">
-        <v>71.7</v>
-      </c>
       <c r="F436" s="4">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G436" s="4">
-        <v>74.5</v>
+        <v>75.7</v>
       </c>
       <c r="H436" s="4">
-        <v>72.3</v>
+        <v>75.2</v>
       </c>
       <c r="I436" s="4">
-        <v>73.3</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A437" s="3" t="s">
-        <v>361</v>
+      <c r="A437" t="s">
+        <v>486</v>
       </c>
       <c r="B437" s="4">
-        <v>75.2</v>
+        <v>79.5</v>
       </c>
       <c r="C437" s="4">
-        <v>75.3</v>
+        <v>77.7</v>
       </c>
       <c r="D437" s="4">
-        <v>75.8</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="E437" s="4">
-        <v>74.900000000000006</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F437" s="4">
         <v>75</v>
       </c>
       <c r="G437" s="4">
-        <v>75.7</v>
+        <v>78</v>
       </c>
       <c r="H437" s="4">
-        <v>75.2</v>
+        <v>77.3</v>
       </c>
       <c r="I437" s="4">
-        <v>75.2</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B438" s="4">
-        <v>79.5</v>
+        <v>75.5</v>
       </c>
       <c r="C438" s="4">
-        <v>77.7</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D438" s="4">
-        <v>77.900000000000006</v>
+        <v>76.5</v>
       </c>
       <c r="E438" s="4">
-        <v>76.099999999999994</v>
+        <v>76.5</v>
       </c>
       <c r="F438" s="4">
-        <v>75</v>
+        <v>77.2</v>
       </c>
       <c r="G438" s="4">
-        <v>78</v>
+        <v>74.7</v>
       </c>
       <c r="H438" s="4">
-        <v>77.3</v>
+        <v>74.3</v>
       </c>
       <c r="I438" s="4">
-        <v>77.599999999999994</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B439" s="4">
-        <v>75.5</v>
+        <v>63.6</v>
       </c>
       <c r="C439" s="4">
-        <v>75.400000000000006</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="D439" s="4">
-        <v>76.5</v>
+        <v>71</v>
       </c>
       <c r="E439" s="4">
-        <v>76.5</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F439" s="4">
-        <v>77.2</v>
+        <v>73.8</v>
       </c>
       <c r="G439" s="4">
-        <v>74.7</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="H439" s="4">
-        <v>74.3</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="I439" s="4">
-        <v>75.400000000000006</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
-        <v>488</v>
+        <v>362</v>
       </c>
       <c r="B440" s="4">
-        <v>63.6</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="C440" s="4">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="D440" s="4">
+        <v>73</v>
+      </c>
+      <c r="E440" s="4">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F440" s="4">
+        <v>73.2</v>
+      </c>
+      <c r="G440" s="4">
+        <v>73.3</v>
+      </c>
+      <c r="H440" s="4">
+        <v>73.8</v>
+      </c>
+      <c r="I440" s="4">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A441" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B441" s="4">
+        <v>65.8</v>
+      </c>
+      <c r="C441" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="D441" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="E441" s="4">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F441" s="4">
+        <v>69.2</v>
+      </c>
+      <c r="G441" s="4">
+        <v>68.5</v>
+      </c>
+      <c r="H441" s="4">
         <v>68.599999999999994</v>
       </c>
-      <c r="D440" s="4">
-        <v>71</v>
-      </c>
-      <c r="E440" s="4">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="F440" s="4">
-        <v>73.8</v>
-      </c>
-      <c r="G440" s="4">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="H440" s="4">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="I440" s="4">
-        <v>69.3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A441" t="s">
-        <v>362</v>
-      </c>
-      <c r="B441" s="4">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="C441" s="4">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="D441" s="4">
-        <v>73</v>
-      </c>
-      <c r="E441" s="4">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F441" s="4">
-        <v>73.2</v>
-      </c>
-      <c r="G441" s="4">
-        <v>73.3</v>
-      </c>
-      <c r="H441" s="4">
-        <v>73.8</v>
-      </c>
       <c r="I441" s="4">
-        <v>72.5</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A442" s="3" t="s">
-        <v>363</v>
+      <c r="A442" t="s">
+        <v>489</v>
       </c>
       <c r="B442" s="4">
-        <v>65.8</v>
+        <v>62.8</v>
       </c>
       <c r="C442" s="4">
-        <v>64.8</v>
+        <v>62.4</v>
       </c>
       <c r="D442" s="4">
-        <v>64.8</v>
+        <v>62.9</v>
       </c>
       <c r="E442" s="4">
-        <v>68.900000000000006</v>
+        <v>65.7</v>
       </c>
       <c r="F442" s="4">
-        <v>69.2</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="G442" s="4">
-        <v>68.5</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="H442" s="4">
-        <v>68.599999999999994</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="I442" s="4">
-        <v>68.599999999999994</v>
+        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
-        <v>489</v>
+        <v>364</v>
       </c>
       <c r="B443" s="4">
-        <v>62.8</v>
+        <v>71</v>
       </c>
       <c r="C443" s="4">
-        <v>62.4</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D443" s="4">
-        <v>62.9</v>
+        <v>68.2</v>
       </c>
       <c r="E443" s="4">
-        <v>65.7</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="F443" s="4">
-        <v>66.599999999999994</v>
+        <v>73.7</v>
       </c>
       <c r="G443" s="4">
-        <v>66.599999999999994</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="H443" s="4">
-        <v>66.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="I443" s="4">
-        <v>67.099999999999994</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A444" t="s">
-        <v>364</v>
+      <c r="A444" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="B444" s="4">
+        <v>68.5</v>
+      </c>
+      <c r="C444" s="4">
+        <v>70</v>
+      </c>
+      <c r="D444" s="4">
+        <v>69.7</v>
+      </c>
+      <c r="E444" s="4">
         <v>71</v>
       </c>
-      <c r="C444" s="4">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="D444" s="4">
-        <v>68.2</v>
-      </c>
-      <c r="E444" s="4">
-        <v>74.400000000000006</v>
-      </c>
       <c r="F444" s="4">
-        <v>73.7</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="G444" s="4">
-        <v>71.599999999999994</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="H444" s="4">
-        <v>72</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="I444" s="4">
-        <v>71.2</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A445" s="3" t="s">
-        <v>365</v>
+      <c r="A445" t="s">
+        <v>367</v>
       </c>
       <c r="B445" s="4">
-        <v>68.5</v>
+        <v>71</v>
       </c>
       <c r="C445" s="4">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="D445" s="4">
-        <v>69.7</v>
+        <v>71.7</v>
       </c>
       <c r="E445" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F445" s="4">
-        <v>71.099999999999994</v>
+        <v>74.5</v>
       </c>
       <c r="G445" s="4">
-        <v>72.099999999999994</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="H445" s="4">
-        <v>72.099999999999994</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="I445" s="4">
-        <v>73.3</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
-        <v>367</v>
+        <v>490</v>
       </c>
       <c r="B446" s="4">
-        <v>71</v>
+        <v>63.8</v>
       </c>
       <c r="C446" s="4">
-        <v>73.3</v>
+        <v>65.7</v>
       </c>
       <c r="D446" s="4">
-        <v>71.7</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="E446" s="4">
-        <v>73</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="F446" s="4">
-        <v>74.5</v>
+        <v>66.7</v>
       </c>
       <c r="G446" s="4">
-        <v>73.599999999999994</v>
+        <v>69.3</v>
       </c>
       <c r="H446" s="4">
-        <v>72.400000000000006</v>
+        <v>69.7</v>
       </c>
       <c r="I446" s="4">
-        <v>74.2</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
-        <v>490</v>
+        <v>366</v>
       </c>
       <c r="B447" s="4">
-        <v>63.8</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C447" s="4">
-        <v>65.7</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="D447" s="4">
-        <v>65.599999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="E447" s="4">
-        <v>67.599999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="F447" s="4">
-        <v>66.7</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="G447" s="4">
-        <v>69.3</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="H447" s="4">
-        <v>69.7</v>
+        <v>79.2</v>
       </c>
       <c r="I447" s="4">
-        <v>70.7</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
-        <v>366</v>
+        <v>491</v>
       </c>
       <c r="B448" s="4">
-        <v>76.400000000000006</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="C448" s="4">
-        <v>76.900000000000006</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="D448" s="4">
-        <v>76.2</v>
+        <v>73.2</v>
       </c>
       <c r="E448" s="4">
-        <v>75.2</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="F448" s="4">
-        <v>75.900000000000006</v>
+        <v>72.2</v>
       </c>
       <c r="G448" s="4">
-        <v>77.099999999999994</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="H448" s="4">
-        <v>79.2</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="I448" s="4">
-        <v>77.400000000000006</v>
+        <v>78.900000000000006</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A449" t="s">
-        <v>491</v>
-      </c>
-      <c r="B449" s="4">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="C449" s="4">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="D449" s="4">
-        <v>73.2</v>
-      </c>
-      <c r="E449" s="4">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F449" s="4">
-        <v>72.2</v>
-      </c>
-      <c r="G449" s="4">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="H449" s="4">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="I449" s="4">
-        <v>78.900000000000006</v>
-      </c>
+      <c r="A449" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B449" s="4"/>
+      <c r="C449" s="4"/>
+      <c r="D449" s="4"/>
+      <c r="E449" s="4"/>
+      <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
+      <c r="H449" s="4"/>
+      <c r="I449" s="4"/>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A450" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -14170,21 +14154,37 @@
       <c r="I450" s="4"/>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A451" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B451" s="4"/>
-      <c r="C451" s="4"/>
-      <c r="D451" s="4"/>
-      <c r="E451" s="4"/>
-      <c r="F451" s="4"/>
-      <c r="G451" s="4"/>
-      <c r="H451" s="4"/>
-      <c r="I451" s="4"/>
+      <c r="A451" t="s">
+        <v>492</v>
+      </c>
+      <c r="B451" s="4">
+        <v>62</v>
+      </c>
+      <c r="C451" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="D451" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="E451" s="4">
+        <v>66</v>
+      </c>
+      <c r="F451" s="4">
+        <v>63.8</v>
+      </c>
+      <c r="G451" s="4">
+        <v>66.2</v>
+      </c>
+      <c r="H451" s="4">
+        <v>66.5</v>
+      </c>
+      <c r="I451" s="4">
+        <v>67</v>
+      </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A452" t="s">
-        <v>492</v>
+      <c r="A452" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="B452" s="4">
         <v>62</v>
@@ -14213,36 +14213,20 @@
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A453" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B453" s="4">
-        <v>62</v>
-      </c>
-      <c r="C453" s="4">
-        <v>64.3</v>
-      </c>
-      <c r="D453" s="4">
-        <v>64.8</v>
-      </c>
-      <c r="E453" s="4">
-        <v>66</v>
-      </c>
-      <c r="F453" s="4">
-        <v>63.8</v>
-      </c>
-      <c r="G453" s="4">
-        <v>66.2</v>
-      </c>
-      <c r="H453" s="4">
-        <v>66.5</v>
-      </c>
-      <c r="I453" s="4">
-        <v>67</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B453" s="4"/>
+      <c r="C453" s="4"/>
+      <c r="D453" s="4"/>
+      <c r="E453" s="4"/>
+      <c r="F453" s="4"/>
+      <c r="G453" s="4"/>
+      <c r="H453" s="4"/>
+      <c r="I453" s="4"/>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A454" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -14268,7 +14252,7 @@
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A456" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -14276,12 +14260,16 @@
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
-      <c r="H456" s="4"/>
-      <c r="I456" s="4"/>
+      <c r="H456" s="4">
+        <v>39.6</v>
+      </c>
+      <c r="I456" s="4">
+        <v>40.700000000000003</v>
+      </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A457" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -14315,7 +14303,7 @@
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A459" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -14323,16 +14311,12 @@
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
-      <c r="H459" s="4">
-        <v>39.6</v>
-      </c>
-      <c r="I459" s="4">
-        <v>40.700000000000003</v>
-      </c>
+      <c r="H459" s="4"/>
+      <c r="I459" s="4"/>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A460" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -14345,7 +14329,7 @@
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A461" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -14358,7 +14342,7 @@
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A462" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -14371,7 +14355,7 @@
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A463" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -14384,7 +14368,7 @@
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A464" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -14397,7 +14381,7 @@
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A465" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -14410,7 +14394,7 @@
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A466" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -14418,12 +14402,16 @@
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
-      <c r="H466" s="4"/>
-      <c r="I466" s="4"/>
+      <c r="H466" s="4">
+        <v>44.6</v>
+      </c>
+      <c r="I466" s="4">
+        <v>44.6</v>
+      </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A467" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -14432,10 +14420,10 @@
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
       <c r="H467" s="4">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="I467" s="4">
-        <v>44.6</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.45">
@@ -14457,7 +14445,7 @@
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A469" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -14466,15 +14454,15 @@
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
       <c r="H469" s="4">
-        <v>44.2</v>
+        <v>52.5</v>
       </c>
       <c r="I469" s="4">
-        <v>43.9</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A470" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -14483,15 +14471,15 @@
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
       <c r="H470" s="4">
-        <v>52.5</v>
+        <v>54.3</v>
       </c>
       <c r="I470" s="4">
-        <v>52.9</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A471" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -14500,15 +14488,15 @@
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
       <c r="H471" s="4">
-        <v>54.3</v>
+        <v>50.8</v>
       </c>
       <c r="I471" s="4">
-        <v>52.3</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A472" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -14517,15 +14505,15 @@
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
       <c r="H472" s="4">
-        <v>50.8</v>
+        <v>46.5</v>
       </c>
       <c r="I472" s="4">
-        <v>53.5</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A473" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -14534,15 +14522,15 @@
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
       <c r="H473" s="4">
-        <v>46.5</v>
+        <v>42.8</v>
       </c>
       <c r="I473" s="4">
-        <v>46.4</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A474" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -14551,15 +14539,15 @@
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
       <c r="H474" s="4">
-        <v>42.8</v>
+        <v>50.7</v>
       </c>
       <c r="I474" s="4">
-        <v>45.2</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A475" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -14568,15 +14556,15 @@
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
       <c r="H475" s="4">
-        <v>50.7</v>
+        <v>47.5</v>
       </c>
       <c r="I475" s="4">
-        <v>49.1</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A476" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -14585,15 +14573,15 @@
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
       <c r="H476" s="4">
-        <v>47.5</v>
+        <v>46.3</v>
       </c>
       <c r="I476" s="4">
-        <v>45.5</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A477" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -14602,15 +14590,15 @@
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
       <c r="H477" s="4">
-        <v>46.3</v>
+        <v>48.8</v>
       </c>
       <c r="I477" s="4">
-        <v>46.5</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A478" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -14619,15 +14607,15 @@
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
       <c r="H478" s="4">
-        <v>48.8</v>
+        <v>43.3</v>
       </c>
       <c r="I478" s="4">
-        <v>49.1</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A479" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -14636,15 +14624,15 @@
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
       <c r="H479" s="4">
-        <v>43.3</v>
+        <v>41.9</v>
       </c>
       <c r="I479" s="4">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A480" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -14653,15 +14641,15 @@
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
       <c r="H480" s="4">
-        <v>41.9</v>
+        <v>42.8</v>
       </c>
       <c r="I480" s="4">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A481" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -14670,15 +14658,15 @@
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
       <c r="H481" s="4">
-        <v>42.8</v>
+        <v>40</v>
       </c>
       <c r="I481" s="4">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A482" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -14687,15 +14675,15 @@
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
       <c r="H482" s="4">
-        <v>40</v>
+        <v>44.9</v>
       </c>
       <c r="I482" s="4">
-        <v>43.6</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A483" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -14704,15 +14692,15 @@
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
       <c r="H483" s="4">
-        <v>44.9</v>
+        <v>55.4</v>
       </c>
       <c r="I483" s="4">
-        <v>45.8</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A484" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -14721,15 +14709,15 @@
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
       <c r="H484" s="4">
-        <v>55.4</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="I484" s="4">
-        <v>56.3</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A485" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -14738,15 +14726,15 @@
       <c r="F485" s="4"/>
       <c r="G485" s="4"/>
       <c r="H485" s="4">
-        <v>40.799999999999997</v>
+        <v>40.9</v>
       </c>
       <c r="I485" s="4">
-        <v>42.6</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A486" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -14755,15 +14743,15 @@
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
       <c r="H486" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="I486" s="4">
         <v>40.9</v>
-      </c>
-      <c r="I486" s="4">
-        <v>40.4</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A487" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -14772,15 +14760,15 @@
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
       <c r="H487" s="4">
-        <v>40.299999999999997</v>
+        <v>45</v>
       </c>
       <c r="I487" s="4">
-        <v>40.9</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A488" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -14789,15 +14777,15 @@
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
       <c r="H488" s="4">
-        <v>45</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="I488" s="4">
-        <v>42.9</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A489" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -14806,15 +14794,15 @@
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
       <c r="H489" s="4">
-        <v>37.299999999999997</v>
+        <v>51.9</v>
       </c>
       <c r="I489" s="4">
-        <v>39.5</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A490" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -14823,15 +14811,15 @@
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
       <c r="H490" s="4">
-        <v>51.9</v>
+        <v>50.7</v>
       </c>
       <c r="I490" s="4">
-        <v>52.3</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A491" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -14840,15 +14828,15 @@
       <c r="F491" s="4"/>
       <c r="G491" s="4"/>
       <c r="H491" s="4">
-        <v>50.7</v>
+        <v>56.1</v>
       </c>
       <c r="I491" s="4">
-        <v>49.7</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A492" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -14857,15 +14845,15 @@
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
       <c r="H492" s="4">
-        <v>56.1</v>
+        <v>51.2</v>
       </c>
       <c r="I492" s="4">
-        <v>51.7</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A493" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -14874,15 +14862,15 @@
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
       <c r="H493" s="4">
-        <v>51.2</v>
+        <v>61</v>
       </c>
       <c r="I493" s="4">
-        <v>53.5</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A494" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -14899,7 +14887,7 @@
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A495" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -14908,15 +14896,15 @@
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
       <c r="H495" s="4">
-        <v>61</v>
+        <v>49.4</v>
       </c>
       <c r="I495" s="4">
-        <v>58.8</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A496" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -14925,15 +14913,15 @@
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
       <c r="H496" s="4">
-        <v>49.4</v>
+        <v>48.2</v>
       </c>
       <c r="I496" s="4">
-        <v>46.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A497" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -14942,15 +14930,15 @@
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
       <c r="H497" s="4">
-        <v>48.2</v>
+        <v>50.7</v>
       </c>
       <c r="I497" s="4">
-        <v>44</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A498" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -14959,15 +14947,15 @@
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
       <c r="H498" s="4">
-        <v>50.7</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="I498" s="4">
-        <v>49.3</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A499" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -14976,15 +14964,15 @@
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
       <c r="H499" s="4">
-        <v>39.200000000000003</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I499" s="4">
-        <v>38.4</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A500" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -14993,15 +14981,15 @@
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
       <c r="H500" s="4">
-        <v>38.700000000000003</v>
+        <v>39.6</v>
       </c>
       <c r="I500" s="4">
-        <v>39.299999999999997</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A501" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -15010,15 +14998,15 @@
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
       <c r="H501" s="4">
-        <v>39.6</v>
+        <v>30.4</v>
       </c>
       <c r="I501" s="4">
-        <v>37.5</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A502" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -15027,15 +15015,15 @@
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
       <c r="H502" s="4">
-        <v>30.4</v>
+        <v>35.4</v>
       </c>
       <c r="I502" s="4">
-        <v>29.7</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A503" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -15044,15 +15032,15 @@
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
       <c r="H503" s="4">
-        <v>35.4</v>
+        <v>29</v>
       </c>
       <c r="I503" s="4">
-        <v>35.4</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A504" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -15061,37 +15049,20 @@
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
       <c r="H504" s="4">
-        <v>29</v>
+        <v>26.2</v>
       </c>
       <c r="I504" s="4">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A505" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B505" s="4"/>
-      <c r="C505" s="4"/>
-      <c r="D505" s="4"/>
-      <c r="E505" s="4"/>
-      <c r="F505" s="4"/>
-      <c r="G505" s="4"/>
-      <c r="H505" s="4">
-        <v>26.2</v>
-      </c>
-      <c r="I505" s="4">
         <v>25.2</v>
       </c>
     </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A506" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A507" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A508" s="1"/>
-      <c r="B508" s="1" t="s">
+      <c r="A507" s="1"/>
+      <c r="B507" s="1" t="s">
         <v>420</v>
       </c>
     </row>
